--- a/config_ios/fish3d_config.xlsx
+++ b/config_ios/fish3d_config.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="611">
   <si>
     <t>line|行号</t>
   </si>
@@ -637,44 +637,13 @@
     <t>3dby_imgf_tbl</t>
   </si>
   <si>
-    <t>4dby_imgf_tbl</t>
-  </si>
-  <si>
-    <t>6dby_imgf_tbl</t>
-  </si>
-  <si>
-    <t>7dby_imgf_tbl</t>
-  </si>
-  <si>
-    <t>9dby_imgf_tbl</t>
-  </si>
-  <si>
     <t>3dby_imgf_fdcl</t>
   </si>
   <si>
-    <t>4dby_imgf_fdcl</t>
-  </si>
-  <si>
-    <t>5dby_imgf_fdcl</t>
-  </si>
-  <si>
-    <t>6dby_imgf_fdcl</t>
-  </si>
-  <si>
-    <t>7dby_imgf_fdcl</t>
-  </si>
-  <si>
-    <t>10dby_imgf_fdcl</t>
-  </si>
-  <si>
     <t>3dby_imgf_fdcl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>9dby_imgf_fdcl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_icon_yu29</t>
   </si>
   <si>
@@ -683,10 +652,6 @@
   </si>
   <si>
     <t>reward_image|鱼的名称图片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>8dby_imgf_fdcl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1168,10 +1133,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>9dby_imgf_tbl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Fish3D076</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3067,10 +3028,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>-90,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>FishNew009</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3267,14 +3224,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>6dby_imgf_fdcl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6dby_imgf_fdcl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>3dby_imgf_hj</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3284,6 +3233,22 @@
   </si>
   <si>
     <t>3dby_imgf_hjzdy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_fdcl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_fdcl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_fdcl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_fdcl</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3490,7 +3455,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3708,9 +3673,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4082,9 +4044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4138,10 +4100,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -4162,7 +4124,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
@@ -4207,25 +4169,25 @@
         <v>24</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="66" customFormat="1">
@@ -4236,22 +4198,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F2" s="61" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I2" s="61">
         <v>0.64</v>
@@ -4298,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="Y2" s="64" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="Z2" s="65" t="s">
         <v>26</v>
@@ -4313,14 +4275,14 @@
         <v>1.2</v>
       </c>
       <c r="AG2" s="65" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="AH2" s="65" t="str">
         <f>VLOOKUP(C2,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/x_0001 1/x_0001 2</v>
       </c>
       <c r="AJ2" s="65" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:36" s="66" customFormat="1">
@@ -4331,22 +4293,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G3" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H3" s="61" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I3" s="61">
         <v>0.94</v>
@@ -4393,7 +4355,7 @@
         <v>0.8</v>
       </c>
       <c r="Y3" s="64" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="Z3" s="65" t="s">
         <v>26</v>
@@ -4412,7 +4374,7 @@
         <v>fish3d/x_0002 1/x_0002 2</v>
       </c>
       <c r="AJ3" s="65" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:36" s="66" customFormat="1">
@@ -4423,10 +4385,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E4" s="61" t="s">
         <v>28</v>
@@ -4438,7 +4400,7 @@
         <v>63</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I4" s="61">
         <v>0.78</v>
@@ -4485,7 +4447,7 @@
         <v>0.35</v>
       </c>
       <c r="Y4" s="64" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="Z4" s="65" t="s">
         <v>29</v>
@@ -4500,14 +4462,14 @@
         <v>1.2</v>
       </c>
       <c r="AG4" s="65" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AH4" s="65" t="str">
         <f>VLOOKUP(C4,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/x_0003 1/x_0003 2</v>
       </c>
       <c r="AJ4" s="65" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="66" customFormat="1">
@@ -4518,22 +4480,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G5" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I5" s="61">
         <v>1.08</v>
@@ -4580,7 +4542,7 @@
         <v>0.6</v>
       </c>
       <c r="Y5" s="64" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="Z5" s="65" t="s">
         <v>26</v>
@@ -4599,7 +4561,7 @@
         <v>fish3d/x_0010 1/xiaoyu</v>
       </c>
       <c r="AJ5" s="65" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:36" s="66" customFormat="1">
@@ -4610,22 +4572,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F6" s="61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="61" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I6" s="61">
         <v>1.56</v>
@@ -4672,7 +4634,7 @@
         <v>0.5</v>
       </c>
       <c r="Y6" s="64" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="Z6" s="65" t="s">
         <v>26</v>
@@ -4691,7 +4653,7 @@
         <v>fish3d/x_0005 1/x_0005 2</v>
       </c>
       <c r="AJ6" s="65" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:36" s="66" customFormat="1">
@@ -4702,22 +4664,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="61" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D7" s="61" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E7" s="61" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="61" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I7" s="61">
         <v>1.76</v>
@@ -4764,7 +4726,7 @@
         <v>0.4</v>
       </c>
       <c r="Y7" s="64" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="Z7" s="65" t="s">
         <v>33</v>
@@ -4786,1606 +4748,1606 @@
         <v>fish3d/x_0004 1/x_0004 2</v>
       </c>
       <c r="AJ7" s="65" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" s="92" customFormat="1">
-      <c r="A8" s="85">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="91" customFormat="1">
+      <c r="A8" s="84">
         <v>7</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="84">
         <v>7</v>
       </c>
-      <c r="C8" s="86" t="s">
-        <v>557</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="86" t="s">
+      <c r="C8" s="85" t="s">
+        <v>545</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="86">
+      <c r="H8" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="85">
         <v>0.78</v>
       </c>
-      <c r="J8" s="86">
+      <c r="J8" s="85">
         <v>0.72</v>
       </c>
-      <c r="K8" s="85">
-        <v>1</v>
-      </c>
-      <c r="L8" s="85">
+      <c r="K8" s="84">
+        <v>1</v>
+      </c>
+      <c r="L8" s="84">
         <v>30</v>
       </c>
-      <c r="M8" s="87">
-        <v>1</v>
-      </c>
-      <c r="N8" s="85">
+      <c r="M8" s="86">
+        <v>1</v>
+      </c>
+      <c r="N8" s="84">
         <v>7</v>
       </c>
-      <c r="O8" s="88" t="s">
-        <v>567</v>
-      </c>
-      <c r="P8" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="86">
+      <c r="O8" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="P8" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="85">
         <v>0.7</v>
       </c>
-      <c r="S8" s="89">
-        <v>1</v>
-      </c>
-      <c r="T8" s="89">
+      <c r="S8" s="88">
+        <v>1</v>
+      </c>
+      <c r="T8" s="88">
         <v>0.32</v>
       </c>
-      <c r="U8" s="90" t="s">
+      <c r="U8" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="V8" s="89">
+      <c r="V8" s="88">
         <v>0.6</v>
       </c>
-      <c r="W8" s="89">
-        <v>1</v>
-      </c>
-      <c r="X8" s="89">
+      <c r="W8" s="88">
+        <v>1</v>
+      </c>
+      <c r="X8" s="88">
         <v>0.35</v>
       </c>
-      <c r="Y8" s="88" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z8" s="91" t="s">
+      <c r="Y8" s="87" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z8" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="AA8" s="91" t="s">
+      <c r="AA8" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="AD8" s="92">
+      <c r="AD8" s="91">
         <f>AD7-100</f>
         <v>8400</v>
       </c>
-      <c r="AE8" s="92">
+      <c r="AE8" s="91">
         <v>1.2</v>
       </c>
-      <c r="AG8" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH8" s="91" t="str">
+      <c r="AG8" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH8" s="90" t="str">
         <f>VLOOKUP(C8,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
       </c>
-      <c r="AJ8" s="91" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" s="92" customFormat="1">
-      <c r="A9" s="85">
+      <c r="AJ8" s="90" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" s="91" customFormat="1">
+      <c r="A9" s="84">
         <v>8</v>
       </c>
-      <c r="B9" s="85">
+      <c r="B9" s="84">
         <v>8</v>
       </c>
-      <c r="C9" s="86" t="s">
-        <v>546</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="E9" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="86" t="s">
+      <c r="C9" s="85" t="s">
+        <v>534</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="I9" s="86">
+      <c r="I9" s="85">
         <v>1.76</v>
       </c>
-      <c r="J9" s="86">
+      <c r="J9" s="85">
         <v>2.74</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="84">
         <v>2</v>
       </c>
-      <c r="L9" s="85">
+      <c r="L9" s="84">
         <v>30</v>
       </c>
-      <c r="M9" s="87">
-        <v>1</v>
-      </c>
-      <c r="N9" s="85">
+      <c r="M9" s="86">
+        <v>1</v>
+      </c>
+      <c r="N9" s="84">
         <v>8</v>
       </c>
-      <c r="O9" s="88" t="s">
-        <v>567</v>
-      </c>
-      <c r="P9" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="86">
+      <c r="O9" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="P9" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="85">
         <v>0.60000000000000009</v>
       </c>
-      <c r="S9" s="89">
-        <v>1</v>
-      </c>
-      <c r="T9" s="89">
+      <c r="S9" s="88">
+        <v>1</v>
+      </c>
+      <c r="T9" s="88">
         <v>0.26</v>
       </c>
-      <c r="U9" s="90" t="s">
+      <c r="U9" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="V9" s="89">
+      <c r="V9" s="88">
         <v>0.8</v>
       </c>
-      <c r="W9" s="89">
-        <v>1</v>
-      </c>
-      <c r="X9" s="89">
+      <c r="W9" s="88">
+        <v>1</v>
+      </c>
+      <c r="X9" s="88">
         <v>0.4</v>
       </c>
-      <c r="Y9" s="88" t="s">
-        <v>342</v>
-      </c>
-      <c r="Z9" s="91" t="s">
+      <c r="Y9" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z9" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="AA9" s="91" t="s">
+      <c r="AA9" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="AD9" s="92">
+      <c r="AD9" s="91">
         <f t="shared" ref="AD9:AD14" si="0">AD8-100</f>
         <v>8300</v>
       </c>
-      <c r="AE9" s="92">
+      <c r="AE9" s="91">
         <v>1.5</v>
       </c>
-      <c r="AF9" s="92">
+      <c r="AF9" s="91">
         <v>2</v>
       </c>
-      <c r="AG9" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH9" s="91" t="str">
+      <c r="AG9" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH9" s="90" t="str">
         <f>VLOOKUP(C9,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
       </c>
-      <c r="AJ9" s="91" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" s="92" customFormat="1">
-      <c r="A10" s="85">
+      <c r="AJ9" s="90" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="91" customFormat="1">
+      <c r="A10" s="84">
         <v>9</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="84">
         <v>9</v>
       </c>
-      <c r="C10" s="86" t="s">
-        <v>547</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="86">
+      <c r="C10" s="85" t="s">
+        <v>535</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="85">
         <v>1.64</v>
       </c>
-      <c r="J10" s="86">
+      <c r="J10" s="85">
         <v>1.88</v>
       </c>
-      <c r="K10" s="85">
-        <v>1</v>
-      </c>
-      <c r="L10" s="85">
+      <c r="K10" s="84">
+        <v>1</v>
+      </c>
+      <c r="L10" s="84">
         <v>30</v>
       </c>
-      <c r="M10" s="87">
-        <v>1</v>
-      </c>
-      <c r="N10" s="85">
+      <c r="M10" s="86">
+        <v>1</v>
+      </c>
+      <c r="N10" s="84">
         <v>10</v>
       </c>
-      <c r="O10" s="88" t="s">
-        <v>567</v>
-      </c>
-      <c r="P10" s="85">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="86">
+      <c r="O10" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="P10" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="85">
         <v>0.5</v>
       </c>
-      <c r="S10" s="89">
-        <v>1</v>
-      </c>
-      <c r="T10" s="89">
+      <c r="S10" s="88">
+        <v>1</v>
+      </c>
+      <c r="T10" s="88">
         <v>0.22</v>
       </c>
-      <c r="U10" s="90" t="s">
+      <c r="U10" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="V10" s="89">
+      <c r="V10" s="88">
         <v>0.8</v>
       </c>
-      <c r="W10" s="89">
-        <v>1</v>
-      </c>
-      <c r="X10" s="89">
+      <c r="W10" s="88">
+        <v>1</v>
+      </c>
+      <c r="X10" s="88">
         <v>0.45</v>
       </c>
-      <c r="Y10" s="88" t="s">
-        <v>342</v>
-      </c>
-      <c r="Z10" s="93" t="s">
+      <c r="Y10" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z10" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="AA10" s="91" t="s">
+      <c r="AA10" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="AD10" s="92">
+      <c r="AD10" s="91">
         <f t="shared" si="0"/>
         <v>8200</v>
       </c>
-      <c r="AE10" s="92">
+      <c r="AE10" s="91">
         <v>1.5</v>
       </c>
-      <c r="AF10" s="92">
+      <c r="AF10" s="91">
         <v>2</v>
       </c>
-      <c r="AG10" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH10" s="91" t="str">
+      <c r="AG10" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH10" s="90" t="str">
         <f>VLOOKUP(C10,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Gangkuiyu/Gangkuiyu 1</v>
       </c>
-      <c r="AJ10" s="91" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" s="92" customFormat="1">
-      <c r="A11" s="85">
+      <c r="AJ10" s="90" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" s="91" customFormat="1">
+      <c r="A11" s="84">
         <v>10</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="84">
         <v>10</v>
       </c>
-      <c r="C11" s="86" t="s">
-        <v>548</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="86" t="s">
-        <v>574</v>
-      </c>
-      <c r="F11" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="86">
-        <v>1</v>
-      </c>
-      <c r="J11" s="86">
+      <c r="C11" s="85" t="s">
+        <v>536</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>561</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="85">
+        <v>1</v>
+      </c>
+      <c r="J11" s="85">
         <v>1.5</v>
       </c>
-      <c r="K11" s="85">
-        <v>1</v>
-      </c>
-      <c r="L11" s="85">
+      <c r="K11" s="84">
+        <v>1</v>
+      </c>
+      <c r="L11" s="84">
         <v>30</v>
       </c>
-      <c r="M11" s="87">
-        <v>1</v>
-      </c>
-      <c r="N11" s="85">
+      <c r="M11" s="86">
+        <v>1</v>
+      </c>
+      <c r="N11" s="84">
         <v>12</v>
       </c>
-      <c r="O11" s="88" t="s">
-        <v>567</v>
-      </c>
-      <c r="P11" s="85">
+      <c r="O11" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="P11" s="84">
         <v>2</v>
       </c>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="86">
+      <c r="Q11" s="84"/>
+      <c r="R11" s="85">
         <v>0.55000000000000004</v>
       </c>
-      <c r="S11" s="89">
+      <c r="S11" s="88">
         <v>1.2</v>
       </c>
-      <c r="T11" s="89">
+      <c r="T11" s="88">
         <v>0.4</v>
       </c>
-      <c r="U11" s="90" t="s">
+      <c r="U11" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="V11" s="89">
-        <v>1</v>
-      </c>
-      <c r="W11" s="89">
-        <v>1</v>
-      </c>
-      <c r="X11" s="89">
+      <c r="V11" s="88">
+        <v>1</v>
+      </c>
+      <c r="W11" s="88">
+        <v>1</v>
+      </c>
+      <c r="X11" s="88">
         <v>0.5</v>
       </c>
-      <c r="Y11" s="88" t="s">
-        <v>342</v>
-      </c>
-      <c r="Z11" s="91" t="s">
+      <c r="Y11" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z11" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="AA11" s="91" t="s">
+      <c r="AA11" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AD11" s="92">
+      <c r="AD11" s="91">
         <f t="shared" si="0"/>
         <v>8100</v>
       </c>
-      <c r="AE11" s="92">
+      <c r="AE11" s="91">
         <v>1.5</v>
       </c>
-      <c r="AF11" s="92">
+      <c r="AF11" s="91">
         <v>2</v>
       </c>
-      <c r="AG11" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH11" s="91" t="str">
+      <c r="AG11" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH11" s="90" t="str">
         <f>VLOOKUP(C11,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Juchisha/Juchisha_Body</v>
       </c>
-      <c r="AJ11" s="91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" s="92" customFormat="1">
-      <c r="A12" s="85">
+      <c r="AJ11" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="91" customFormat="1">
+      <c r="A12" s="84">
         <v>11</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="84">
         <v>11</v>
       </c>
-      <c r="C12" s="86" t="s">
-        <v>549</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="86">
+      <c r="C12" s="85" t="s">
+        <v>537</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="85">
         <v>2.36</v>
       </c>
-      <c r="J12" s="86">
+      <c r="J12" s="85">
         <v>2.58</v>
       </c>
-      <c r="K12" s="85">
-        <v>1</v>
-      </c>
-      <c r="L12" s="85">
+      <c r="K12" s="84">
+        <v>1</v>
+      </c>
+      <c r="L12" s="84">
         <v>30</v>
       </c>
-      <c r="M12" s="87">
-        <v>1</v>
-      </c>
-      <c r="N12" s="85">
+      <c r="M12" s="86">
+        <v>1</v>
+      </c>
+      <c r="N12" s="84">
         <v>15</v>
       </c>
-      <c r="O12" s="88" t="s">
-        <v>567</v>
-      </c>
-      <c r="P12" s="85">
+      <c r="O12" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="P12" s="84">
         <v>2</v>
       </c>
-      <c r="Q12" s="85"/>
-      <c r="R12" s="86">
+      <c r="Q12" s="84"/>
+      <c r="R12" s="85">
         <v>0.8</v>
       </c>
-      <c r="S12" s="89">
-        <v>1</v>
-      </c>
-      <c r="T12" s="89">
+      <c r="S12" s="88">
+        <v>1</v>
+      </c>
+      <c r="T12" s="88">
         <v>0.6</v>
       </c>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="V12" s="89">
+      <c r="V12" s="88">
         <v>0.7</v>
       </c>
-      <c r="W12" s="89">
-        <v>1</v>
-      </c>
-      <c r="X12" s="89">
+      <c r="W12" s="88">
+        <v>1</v>
+      </c>
+      <c r="X12" s="88">
         <v>0.35</v>
       </c>
-      <c r="Y12" s="88" t="s">
-        <v>343</v>
-      </c>
-      <c r="Z12" s="91" t="s">
+      <c r="Y12" s="87" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z12" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="AA12" s="91" t="s">
+      <c r="AA12" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AD12" s="92">
+      <c r="AD12" s="91">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="AE12" s="92">
+      <c r="AE12" s="91">
         <v>1.5</v>
       </c>
-      <c r="AF12" s="92">
+      <c r="AF12" s="91">
         <v>2</v>
       </c>
-      <c r="AG12" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH12" s="91" t="str">
+      <c r="AG12" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH12" s="90" t="str">
         <f>VLOOKUP(C12,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Haigui/Haigui_Body</v>
       </c>
-      <c r="AJ12" s="91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" s="92" customFormat="1">
-      <c r="A13" s="85">
+      <c r="AJ12" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" s="91" customFormat="1">
+      <c r="A13" s="84">
         <v>12</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="84">
         <v>12</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>550</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>230</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="86" t="s">
+      <c r="C13" s="85" t="s">
+        <v>538</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="86">
+      <c r="I13" s="85">
         <v>0.96</v>
       </c>
-      <c r="J13" s="86">
+      <c r="J13" s="85">
         <v>0.83</v>
       </c>
-      <c r="K13" s="85">
-        <v>1</v>
-      </c>
-      <c r="L13" s="85">
+      <c r="K13" s="84">
+        <v>1</v>
+      </c>
+      <c r="L13" s="84">
         <v>30</v>
       </c>
-      <c r="M13" s="87">
-        <v>1</v>
-      </c>
-      <c r="N13" s="85">
+      <c r="M13" s="86">
+        <v>1</v>
+      </c>
+      <c r="N13" s="84">
         <v>18</v>
       </c>
-      <c r="O13" s="88" t="s">
-        <v>567</v>
-      </c>
-      <c r="P13" s="85">
+      <c r="O13" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="P13" s="84">
         <v>3</v>
       </c>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="86">
+      <c r="Q13" s="84"/>
+      <c r="R13" s="85">
         <v>0.7</v>
       </c>
-      <c r="S13" s="89">
-        <v>1</v>
-      </c>
-      <c r="T13" s="89">
+      <c r="S13" s="88">
+        <v>1</v>
+      </c>
+      <c r="T13" s="88">
         <v>0.74</v>
       </c>
-      <c r="U13" s="86" t="s">
+      <c r="U13" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="V13" s="89">
-        <v>1</v>
-      </c>
-      <c r="W13" s="89">
+      <c r="V13" s="88">
+        <v>1</v>
+      </c>
+      <c r="W13" s="88">
         <v>0.7</v>
       </c>
-      <c r="X13" s="89">
+      <c r="X13" s="88">
         <v>0.35</v>
       </c>
-      <c r="Y13" s="88" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z13" s="91" t="s">
+      <c r="Y13" s="87" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z13" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="AA13" s="91" t="s">
+      <c r="AA13" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="AD13" s="92">
+      <c r="AD13" s="91">
         <f t="shared" si="0"/>
         <v>7900</v>
       </c>
-      <c r="AE13" s="92">
+      <c r="AE13" s="91">
         <v>1.5</v>
       </c>
-      <c r="AF13" s="92">
+      <c r="AF13" s="91">
         <v>2</v>
       </c>
-      <c r="AG13" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH13" s="91" t="str">
+      <c r="AG13" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH13" s="90" t="str">
         <f>VLOOKUP(C13,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Shiziyu/Shiziyu_Body</v>
       </c>
-      <c r="AJ13" s="91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" s="92" customFormat="1">
-      <c r="A14" s="85">
+      <c r="AJ13" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="91" customFormat="1">
+      <c r="A14" s="84">
         <v>13</v>
       </c>
-      <c r="B14" s="85">
+      <c r="B14" s="84">
         <v>13</v>
       </c>
-      <c r="C14" s="86" t="s">
-        <v>429</v>
-      </c>
-      <c r="D14" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="86">
+      <c r="C14" s="85" t="s">
+        <v>417</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="G14" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="85">
         <v>0.96</v>
       </c>
-      <c r="J14" s="86">
+      <c r="J14" s="85">
         <v>0.68</v>
       </c>
-      <c r="K14" s="85">
-        <v>1</v>
-      </c>
-      <c r="L14" s="85">
+      <c r="K14" s="84">
+        <v>1</v>
+      </c>
+      <c r="L14" s="84">
         <v>30</v>
       </c>
-      <c r="M14" s="87">
-        <v>1</v>
-      </c>
-      <c r="N14" s="85">
+      <c r="M14" s="86">
+        <v>1</v>
+      </c>
+      <c r="N14" s="84">
         <v>20</v>
       </c>
-      <c r="O14" s="88" t="s">
-        <v>567</v>
-      </c>
-      <c r="P14" s="85">
+      <c r="O14" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="P14" s="84">
         <v>3</v>
       </c>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="86">
+      <c r="Q14" s="84"/>
+      <c r="R14" s="85">
         <v>0.7</v>
       </c>
-      <c r="S14" s="89">
-        <v>1</v>
-      </c>
-      <c r="T14" s="89">
+      <c r="S14" s="88">
+        <v>1</v>
+      </c>
+      <c r="T14" s="88">
         <v>0.8</v>
       </c>
-      <c r="U14" s="86" t="s">
+      <c r="U14" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="V14" s="89">
+      <c r="V14" s="88">
         <v>0.7</v>
       </c>
-      <c r="W14" s="89">
-        <v>1</v>
-      </c>
-      <c r="X14" s="89">
+      <c r="W14" s="88">
+        <v>1</v>
+      </c>
+      <c r="X14" s="88">
         <v>0.35</v>
       </c>
-      <c r="Y14" s="88" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z14" s="91" t="s">
+      <c r="Y14" s="87" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z14" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="AA14" s="91" t="s">
+      <c r="AA14" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="AD14" s="92">
+      <c r="AD14" s="91">
         <f t="shared" si="0"/>
         <v>7800</v>
       </c>
-      <c r="AE14" s="92">
+      <c r="AE14" s="91">
         <v>1.5</v>
       </c>
-      <c r="AF14" s="92">
+      <c r="AF14" s="91">
         <v>2</v>
       </c>
-      <c r="AG14" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH14" s="91" t="str">
+      <c r="AG14" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH14" s="90" t="str">
         <f>VLOOKUP(C14,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Hole/body001</v>
       </c>
-      <c r="AJ14" s="91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" s="92" customFormat="1">
-      <c r="A15" s="85">
+      <c r="AJ14" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="91" customFormat="1">
+      <c r="A15" s="84">
         <v>14</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="84">
         <v>14</v>
       </c>
-      <c r="C15" s="86" t="s">
-        <v>611</v>
-      </c>
-      <c r="D15" s="86" t="s">
-        <v>591</v>
-      </c>
-      <c r="E15" s="86" t="s">
-        <v>576</v>
-      </c>
-      <c r="F15" s="86" t="s">
-        <v>273</v>
-      </c>
-      <c r="G15" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="86">
+      <c r="C15" s="85" t="s">
+        <v>598</v>
+      </c>
+      <c r="D15" s="85" t="s">
+        <v>578</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>563</v>
+      </c>
+      <c r="F15" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="G15" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="85">
         <v>0.74</v>
       </c>
-      <c r="J15" s="86">
+      <c r="J15" s="85">
         <v>0.86</v>
       </c>
-      <c r="K15" s="85">
-        <v>1</v>
-      </c>
-      <c r="L15" s="85">
+      <c r="K15" s="84">
+        <v>1</v>
+      </c>
+      <c r="L15" s="84">
         <v>30</v>
       </c>
-      <c r="M15" s="87">
-        <v>1</v>
-      </c>
-      <c r="N15" s="85">
+      <c r="M15" s="86">
+        <v>1</v>
+      </c>
+      <c r="N15" s="84">
         <v>25</v>
       </c>
-      <c r="O15" s="88" t="s">
-        <v>567</v>
-      </c>
-      <c r="P15" s="85">
+      <c r="O15" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="P15" s="84">
         <v>2</v>
       </c>
-      <c r="Q15" s="85"/>
-      <c r="R15" s="86">
+      <c r="Q15" s="84"/>
+      <c r="R15" s="85">
         <v>0.8</v>
       </c>
-      <c r="S15" s="89">
-        <v>1</v>
-      </c>
-      <c r="T15" s="89">
+      <c r="S15" s="88">
+        <v>1</v>
+      </c>
+      <c r="T15" s="88">
         <v>0.26</v>
       </c>
-      <c r="U15" s="90" t="s">
+      <c r="U15" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="V15" s="89">
+      <c r="V15" s="88">
         <v>0.8</v>
       </c>
-      <c r="W15" s="89">
-        <v>1</v>
-      </c>
-      <c r="X15" s="89">
+      <c r="W15" s="88">
+        <v>1</v>
+      </c>
+      <c r="X15" s="88">
         <v>0.4</v>
       </c>
-      <c r="Y15" s="88" t="s">
-        <v>336</v>
-      </c>
-      <c r="Z15" s="91" t="s">
+      <c r="Y15" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z15" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="AA15" s="91" t="s">
+      <c r="AA15" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="AD15" s="92">
+      <c r="AD15" s="91">
         <v>8800</v>
       </c>
-      <c r="AE15" s="92">
+      <c r="AE15" s="91">
         <v>1.5</v>
       </c>
-      <c r="AF15" s="92">
+      <c r="AF15" s="91">
         <v>2</v>
       </c>
-      <c r="AG15" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH15" s="91" t="str">
+      <c r="AG15" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH15" s="90" t="str">
         <f>VLOOKUP(C15,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/longxia_pre/Longxia_Body</v>
       </c>
-      <c r="AJ15" s="91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" s="92" customFormat="1">
-      <c r="A16" s="85">
+      <c r="AJ15" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="91" customFormat="1">
+      <c r="A16" s="84">
         <v>15</v>
       </c>
-      <c r="B16" s="85">
+      <c r="B16" s="84">
         <v>15</v>
       </c>
-      <c r="C16" s="86" t="s">
-        <v>377</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>592</v>
-      </c>
-      <c r="E16" s="86" t="s">
-        <v>575</v>
-      </c>
-      <c r="F16" s="86" t="s">
-        <v>272</v>
-      </c>
-      <c r="G16" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="86">
+      <c r="C16" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>579</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>562</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="85">
         <v>1.53</v>
       </c>
-      <c r="J16" s="86">
+      <c r="J16" s="85">
         <v>1.48</v>
       </c>
-      <c r="K16" s="85">
-        <v>1</v>
-      </c>
-      <c r="L16" s="85">
+      <c r="K16" s="84">
+        <v>1</v>
+      </c>
+      <c r="L16" s="84">
         <v>30</v>
       </c>
-      <c r="M16" s="87">
-        <v>1</v>
-      </c>
-      <c r="N16" s="85">
+      <c r="M16" s="86">
+        <v>1</v>
+      </c>
+      <c r="N16" s="84">
         <v>30</v>
       </c>
-      <c r="O16" s="88" t="s">
-        <v>567</v>
-      </c>
-      <c r="P16" s="85">
+      <c r="O16" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="P16" s="84">
         <v>4</v>
       </c>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="86">
+      <c r="Q16" s="84"/>
+      <c r="R16" s="85">
         <v>0.7</v>
       </c>
-      <c r="S16" s="89">
-        <v>1</v>
-      </c>
-      <c r="T16" s="89">
+      <c r="S16" s="88">
+        <v>1</v>
+      </c>
+      <c r="T16" s="88">
         <v>0.6</v>
       </c>
-      <c r="U16" s="86" t="s">
+      <c r="U16" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="V16" s="89">
+      <c r="V16" s="88">
         <v>0.7</v>
       </c>
-      <c r="W16" s="89">
-        <v>1</v>
-      </c>
-      <c r="X16" s="89">
+      <c r="W16" s="88">
+        <v>1</v>
+      </c>
+      <c r="X16" s="88">
         <v>0.35</v>
       </c>
-      <c r="Y16" s="88" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z16" s="91" t="s">
+      <c r="Y16" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z16" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="AA16" s="91" t="s">
+      <c r="AA16" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AD16" s="92">
+      <c r="AD16" s="91">
         <v>7400</v>
       </c>
-      <c r="AE16" s="92">
+      <c r="AE16" s="91">
         <v>1.5</v>
       </c>
-      <c r="AF16" s="92">
+      <c r="AF16" s="91">
         <v>2</v>
       </c>
-      <c r="AG16" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH16" s="91" t="str">
+      <c r="AG16" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH16" s="90" t="str">
         <f>VLOOKUP(C16,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
       </c>
-      <c r="AJ16" s="91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" s="92" customFormat="1">
-      <c r="A17" s="85">
+      <c r="AJ16" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" s="91" customFormat="1">
+      <c r="A17" s="84">
         <v>16</v>
       </c>
-      <c r="B17" s="85">
+      <c r="B17" s="84">
         <v>16</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="85" t="s">
+        <v>539</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>580</v>
+      </c>
+      <c r="E17" s="85" t="s">
         <v>551</v>
       </c>
-      <c r="D17" s="86" t="s">
-        <v>593</v>
-      </c>
-      <c r="E17" s="86" t="s">
-        <v>563</v>
-      </c>
-      <c r="F17" s="86" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" s="86" t="s">
-        <v>619</v>
-      </c>
-      <c r="H17" s="86" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="86">
+      <c r="F17" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="85" t="s">
+        <v>604</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="85">
         <v>0.8</v>
       </c>
-      <c r="J17" s="86">
+      <c r="J17" s="85">
         <v>1.3</v>
       </c>
-      <c r="K17" s="85">
-        <v>1</v>
-      </c>
-      <c r="L17" s="85">
+      <c r="K17" s="84">
+        <v>1</v>
+      </c>
+      <c r="L17" s="84">
         <v>30</v>
       </c>
-      <c r="M17" s="87">
-        <v>1</v>
-      </c>
-      <c r="N17" s="85">
+      <c r="M17" s="86">
+        <v>1</v>
+      </c>
+      <c r="N17" s="84">
         <v>35</v>
       </c>
-      <c r="O17" s="88" t="s">
-        <v>567</v>
-      </c>
-      <c r="P17" s="85">
+      <c r="O17" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="P17" s="84">
         <v>3</v>
       </c>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="86">
+      <c r="Q17" s="84"/>
+      <c r="R17" s="85">
         <v>0.8</v>
       </c>
-      <c r="S17" s="89">
-        <v>1</v>
-      </c>
-      <c r="T17" s="89">
+      <c r="S17" s="88">
+        <v>1</v>
+      </c>
+      <c r="T17" s="88">
         <v>0.4</v>
       </c>
-      <c r="U17" s="90" t="s">
+      <c r="U17" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="V17" s="89">
-        <v>1</v>
-      </c>
-      <c r="W17" s="89">
-        <v>1</v>
-      </c>
-      <c r="X17" s="89">
+      <c r="V17" s="88">
+        <v>1</v>
+      </c>
+      <c r="W17" s="88">
+        <v>1</v>
+      </c>
+      <c r="X17" s="88">
         <v>0.5</v>
       </c>
-      <c r="Y17" s="88" t="s">
-        <v>338</v>
-      </c>
-      <c r="Z17" s="91" t="s">
+      <c r="Y17" s="87" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z17" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="AA17" s="91" t="s">
+      <c r="AA17" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AD17" s="92">
+      <c r="AD17" s="91">
         <v>7300</v>
       </c>
-      <c r="AE17" s="92">
+      <c r="AE17" s="91">
         <v>1.5</v>
       </c>
-      <c r="AF17" s="92">
+      <c r="AF17" s="91">
         <v>2</v>
       </c>
-      <c r="AG17" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH17" s="91" t="str">
+      <c r="AG17" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH17" s="90" t="str">
         <f>VLOOKUP(C17,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Dabaisha/Dabaisha_Body</v>
       </c>
-      <c r="AJ17" s="91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" s="92" customFormat="1">
-      <c r="A18" s="85">
+      <c r="AJ17" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" s="91" customFormat="1">
+      <c r="A18" s="84">
         <v>17</v>
       </c>
-      <c r="B18" s="85">
+      <c r="B18" s="84">
         <v>17</v>
       </c>
-      <c r="C18" s="86" t="s">
-        <v>476</v>
-      </c>
-      <c r="D18" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="E18" s="90" t="s">
+      <c r="C18" s="85" t="s">
+        <v>464</v>
+      </c>
+      <c r="D18" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="H18" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="86">
+      <c r="F18" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="G18" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="H18" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="85">
         <v>1.53</v>
       </c>
-      <c r="J18" s="86">
+      <c r="J18" s="85">
         <v>1.48</v>
       </c>
-      <c r="K18" s="85">
+      <c r="K18" s="84">
         <v>0.8</v>
       </c>
-      <c r="L18" s="85">
+      <c r="L18" s="84">
         <v>30</v>
       </c>
-      <c r="M18" s="87">
-        <v>1</v>
-      </c>
-      <c r="N18" s="85">
+      <c r="M18" s="86">
+        <v>1</v>
+      </c>
+      <c r="N18" s="84">
         <v>40</v>
       </c>
-      <c r="O18" s="88" t="s">
-        <v>567</v>
-      </c>
-      <c r="P18" s="85">
+      <c r="O18" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="P18" s="84">
         <v>4</v>
       </c>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="86">
+      <c r="Q18" s="84"/>
+      <c r="R18" s="85">
         <v>0.7</v>
       </c>
-      <c r="S18" s="89">
-        <v>1</v>
-      </c>
-      <c r="T18" s="89">
+      <c r="S18" s="88">
+        <v>1</v>
+      </c>
+      <c r="T18" s="88">
         <v>0.6</v>
       </c>
-      <c r="U18" s="86" t="s">
+      <c r="U18" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="V18" s="89">
+      <c r="V18" s="88">
         <v>1.2</v>
       </c>
-      <c r="W18" s="89">
-        <v>1</v>
-      </c>
-      <c r="X18" s="89">
+      <c r="W18" s="88">
+        <v>1</v>
+      </c>
+      <c r="X18" s="88">
         <v>0.35</v>
       </c>
-      <c r="Y18" s="88" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z18" s="91" t="s">
+      <c r="Y18" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z18" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="AA18" s="91" t="s">
+      <c r="AA18" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AD18" s="92">
+      <c r="AD18" s="91">
         <v>7200</v>
       </c>
-      <c r="AE18" s="92">
+      <c r="AE18" s="91">
         <v>1.5</v>
       </c>
-      <c r="AF18" s="92">
+      <c r="AF18" s="91">
         <v>2</v>
       </c>
-      <c r="AG18" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH18" s="91" t="str">
+      <c r="AG18" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH18" s="90" t="str">
         <f>VLOOKUP(C18,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Xiaomoguiyu/Moguiyu_Body</v>
       </c>
-      <c r="AJ18" s="91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" s="92" customFormat="1">
-      <c r="A19" s="85">
+      <c r="AJ18" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" s="91" customFormat="1">
+      <c r="A19" s="84">
         <v>18</v>
       </c>
-      <c r="B19" s="85">
+      <c r="B19" s="84">
         <v>18</v>
       </c>
-      <c r="C19" s="86" t="s">
-        <v>397</v>
-      </c>
-      <c r="D19" s="86" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="86" t="s">
-        <v>577</v>
-      </c>
-      <c r="F19" s="90" t="s">
-        <v>616</v>
-      </c>
-      <c r="G19" s="86" t="s">
-        <v>618</v>
-      </c>
-      <c r="H19" s="86" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="86">
+      <c r="C19" s="85" t="s">
+        <v>385</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="85" t="s">
+        <v>564</v>
+      </c>
+      <c r="F19" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="G19" s="85" t="s">
+        <v>603</v>
+      </c>
+      <c r="H19" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="85">
         <v>0.66</v>
       </c>
-      <c r="J19" s="86">
+      <c r="J19" s="85">
         <v>0.89</v>
       </c>
-      <c r="K19" s="85">
-        <v>1</v>
-      </c>
-      <c r="L19" s="85">
+      <c r="K19" s="84">
+        <v>1</v>
+      </c>
+      <c r="L19" s="84">
         <v>30</v>
       </c>
-      <c r="M19" s="87">
-        <v>1</v>
-      </c>
-      <c r="N19" s="85">
+      <c r="M19" s="86">
+        <v>1</v>
+      </c>
+      <c r="N19" s="84">
         <v>60</v>
       </c>
-      <c r="O19" s="88" t="s">
-        <v>567</v>
-      </c>
-      <c r="P19" s="85">
+      <c r="O19" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="P19" s="84">
         <v>4</v>
       </c>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="86">
+      <c r="Q19" s="84"/>
+      <c r="R19" s="85">
         <v>0.8</v>
       </c>
-      <c r="S19" s="89">
-        <v>1</v>
-      </c>
-      <c r="T19" s="89">
+      <c r="S19" s="88">
+        <v>1</v>
+      </c>
+      <c r="T19" s="88">
         <v>0.74</v>
       </c>
-      <c r="U19" s="86" t="s">
+      <c r="U19" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="V19" s="89">
+      <c r="V19" s="88">
         <v>0.7</v>
       </c>
-      <c r="W19" s="89">
-        <v>1</v>
-      </c>
-      <c r="X19" s="89">
+      <c r="W19" s="88">
+        <v>1</v>
+      </c>
+      <c r="X19" s="88">
         <v>0.35</v>
       </c>
-      <c r="Y19" s="88" t="s">
-        <v>337</v>
-      </c>
-      <c r="Z19" s="91" t="s">
+      <c r="Y19" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z19" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="AA19" s="91" t="s">
+      <c r="AA19" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="AD19" s="92">
+      <c r="AD19" s="91">
         <v>7100</v>
       </c>
-      <c r="AE19" s="92">
+      <c r="AE19" s="91">
         <v>1.5</v>
       </c>
-      <c r="AF19" s="92">
+      <c r="AF19" s="91">
         <v>2</v>
       </c>
-      <c r="AG19" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH19" s="91" t="str">
+      <c r="AG19" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH19" s="90" t="str">
         <f>VLOOKUP(C19,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Huandengyu/Huandengyu_Body</v>
       </c>
-      <c r="AJ19" s="91" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" s="92" customFormat="1">
-      <c r="A20" s="85">
+      <c r="AJ19" s="90" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" s="91" customFormat="1">
+      <c r="A20" s="84">
         <v>19</v>
       </c>
-      <c r="B20" s="85">
+      <c r="B20" s="84">
         <v>19</v>
       </c>
-      <c r="C20" s="86" t="s">
-        <v>609</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>248</v>
-      </c>
-      <c r="E20" s="86" t="s">
-        <v>610</v>
-      </c>
-      <c r="F20" s="86" t="s">
-        <v>617</v>
-      </c>
-      <c r="G20" s="86" t="s">
-        <v>621</v>
-      </c>
-      <c r="H20" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="86">
+      <c r="C20" s="85" t="s">
+        <v>596</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="85" t="s">
+        <v>597</v>
+      </c>
+      <c r="F20" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="G20" s="85" t="s">
+        <v>606</v>
+      </c>
+      <c r="H20" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="85">
         <v>2.2799999999999998</v>
       </c>
-      <c r="J20" s="86">
+      <c r="J20" s="85">
         <v>3.46</v>
       </c>
-      <c r="K20" s="85">
+      <c r="K20" s="84">
         <v>0.8</v>
       </c>
-      <c r="L20" s="85">
+      <c r="L20" s="84">
         <v>30</v>
       </c>
-      <c r="M20" s="87">
-        <v>1</v>
-      </c>
-      <c r="N20" s="85">
+      <c r="M20" s="86">
+        <v>1</v>
+      </c>
+      <c r="N20" s="84">
         <v>60</v>
       </c>
-      <c r="O20" s="88" t="s">
-        <v>597</v>
-      </c>
-      <c r="P20" s="85">
+      <c r="O20" s="87" t="s">
+        <v>584</v>
+      </c>
+      <c r="P20" s="84">
         <v>4</v>
       </c>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="86">
+      <c r="Q20" s="84"/>
+      <c r="R20" s="85">
         <v>0.7</v>
       </c>
-      <c r="S20" s="89">
-        <v>1</v>
-      </c>
-      <c r="T20" s="89">
+      <c r="S20" s="88">
+        <v>1</v>
+      </c>
+      <c r="T20" s="88">
         <v>0.74</v>
       </c>
-      <c r="U20" s="86" t="s">
+      <c r="U20" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="V20" s="89">
-        <v>1</v>
-      </c>
-      <c r="W20" s="89">
-        <v>1</v>
-      </c>
-      <c r="X20" s="89">
+      <c r="V20" s="88">
+        <v>1</v>
+      </c>
+      <c r="W20" s="88">
+        <v>1</v>
+      </c>
+      <c r="X20" s="88">
         <v>0.35</v>
       </c>
-      <c r="Y20" s="88" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z20" s="91" t="s">
+      <c r="Y20" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z20" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="AA20" s="91" t="s">
+      <c r="AA20" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="AD20" s="92">
+      <c r="AD20" s="91">
         <v>7000</v>
       </c>
-      <c r="AE20" s="92">
+      <c r="AE20" s="91">
         <v>2</v>
       </c>
-      <c r="AF20" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH20" s="91" t="str">
+      <c r="AF20" s="91">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH20" s="90" t="str">
         <f>VLOOKUP(C20,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/CSY/body002</v>
       </c>
-      <c r="AJ20" s="91" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" s="92" customFormat="1">
-      <c r="A21" s="85">
+      <c r="AJ20" s="90" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" s="91" customFormat="1">
+      <c r="A21" s="84">
         <v>20</v>
       </c>
-      <c r="B21" s="85">
+      <c r="B21" s="84">
         <v>20</v>
       </c>
-      <c r="C21" s="86" t="s">
-        <v>559</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>213</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="G21" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="H21" s="86" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="86">
+      <c r="C21" s="85" t="s">
+        <v>547</v>
+      </c>
+      <c r="D21" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="G21" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="H21" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="85">
         <v>2.72</v>
       </c>
-      <c r="J21" s="86">
+      <c r="J21" s="85">
         <v>2.62</v>
       </c>
-      <c r="K21" s="85">
+      <c r="K21" s="84">
         <v>0.8</v>
       </c>
-      <c r="L21" s="85">
+      <c r="L21" s="84">
         <v>30</v>
       </c>
-      <c r="M21" s="87">
-        <v>1</v>
-      </c>
-      <c r="N21" s="85">
+      <c r="M21" s="86">
+        <v>1</v>
+      </c>
+      <c r="N21" s="84">
         <v>80</v>
       </c>
-      <c r="O21" s="85" t="s">
-        <v>567</v>
-      </c>
-      <c r="P21" s="85">
-        <v>1</v>
-      </c>
-      <c r="R21" s="86">
+      <c r="O21" s="84" t="s">
+        <v>555</v>
+      </c>
+      <c r="P21" s="84">
+        <v>1</v>
+      </c>
+      <c r="R21" s="85">
         <v>0.8</v>
       </c>
-      <c r="S21" s="89">
-        <v>1</v>
-      </c>
-      <c r="T21" s="89">
+      <c r="S21" s="88">
+        <v>1</v>
+      </c>
+      <c r="T21" s="88">
         <v>0.74</v>
       </c>
-      <c r="U21" s="86" t="s">
+      <c r="U21" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="V21" s="89">
-        <v>1</v>
-      </c>
-      <c r="W21" s="89">
-        <v>1</v>
-      </c>
-      <c r="X21" s="89">
+      <c r="V21" s="88">
+        <v>1</v>
+      </c>
+      <c r="W21" s="88">
+        <v>1</v>
+      </c>
+      <c r="X21" s="88">
         <v>0.35</v>
       </c>
-      <c r="Y21" s="88" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z21" s="91" t="s">
+      <c r="Y21" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z21" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="AA21" s="91" t="s">
+      <c r="AA21" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="AD21" s="92">
+      <c r="AD21" s="91">
         <v>6500</v>
       </c>
-      <c r="AE21" s="92">
+      <c r="AE21" s="91">
         <v>2</v>
       </c>
-      <c r="AF21" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH21" s="91" t="str">
+      <c r="AF21" s="91">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH21" s="90" t="str">
         <f>VLOOKUP(C21,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
       </c>
-      <c r="AJ21" s="91" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" s="92" customFormat="1">
-      <c r="A22" s="85">
+      <c r="AJ21" s="90" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" s="91" customFormat="1">
+      <c r="A22" s="84">
         <v>21</v>
       </c>
-      <c r="B22" s="85">
+      <c r="B22" s="84">
         <v>21</v>
       </c>
-      <c r="C22" s="86" t="s">
-        <v>552</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="E22" s="86" t="s">
-        <v>568</v>
-      </c>
-      <c r="F22" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="G22" s="86" t="s">
-        <v>620</v>
-      </c>
-      <c r="H22" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="86">
+      <c r="C22" s="85" t="s">
+        <v>540</v>
+      </c>
+      <c r="D22" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="85" t="s">
+        <v>556</v>
+      </c>
+      <c r="F22" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="85" t="s">
+        <v>605</v>
+      </c>
+      <c r="H22" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="85">
         <v>1.29</v>
       </c>
-      <c r="J22" s="86">
+      <c r="J22" s="85">
         <v>1.8</v>
       </c>
-      <c r="K22" s="85">
+      <c r="K22" s="84">
         <v>0.8</v>
       </c>
-      <c r="L22" s="85">
+      <c r="L22" s="84">
         <v>30</v>
       </c>
-      <c r="M22" s="87">
-        <v>1</v>
-      </c>
-      <c r="N22" s="85">
+      <c r="M22" s="86">
+        <v>1</v>
+      </c>
+      <c r="N22" s="84">
         <v>55</v>
       </c>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85">
+      <c r="O22" s="84"/>
+      <c r="P22" s="84">
         <v>3</v>
       </c>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="86">
+      <c r="Q22" s="84"/>
+      <c r="R22" s="85">
         <v>0.8</v>
       </c>
-      <c r="S22" s="89">
-        <v>1</v>
-      </c>
-      <c r="T22" s="89">
+      <c r="S22" s="88">
+        <v>1</v>
+      </c>
+      <c r="T22" s="88">
         <v>0.8</v>
       </c>
-      <c r="U22" s="86" t="s">
+      <c r="U22" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="V22" s="89">
+      <c r="V22" s="88">
         <v>1.5</v>
       </c>
-      <c r="W22" s="89">
-        <v>1</v>
-      </c>
-      <c r="X22" s="89">
+      <c r="W22" s="88">
+        <v>1</v>
+      </c>
+      <c r="X22" s="88">
         <v>0.35</v>
       </c>
-      <c r="Y22" s="88" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z22" s="91" t="s">
+      <c r="Y22" s="87" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z22" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="AA22" s="91" t="s">
+      <c r="AA22" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="AD22" s="92">
+      <c r="AD22" s="91">
         <v>6400</v>
       </c>
-      <c r="AE22" s="92">
+      <c r="AE22" s="91">
         <v>2</v>
       </c>
-      <c r="AF22" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH22" s="91" t="str">
+      <c r="AF22" s="91">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH22" s="90" t="str">
         <f>VLOOKUP(C22,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Baozhahetun/Baozhahetun_Body</v>
       </c>
-      <c r="AJ22" s="91" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" s="92" customFormat="1">
-      <c r="A23" s="85">
+      <c r="AJ22" s="90" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" s="91" customFormat="1">
+      <c r="A23" s="84">
         <v>22</v>
       </c>
-      <c r="B23" s="85">
+      <c r="B23" s="84">
         <v>22</v>
       </c>
-      <c r="C23" s="86" t="s">
-        <v>562</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="E23" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="G23" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="H23" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="86">
+      <c r="C23" s="85" t="s">
+        <v>550</v>
+      </c>
+      <c r="D23" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="G23" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="85">
         <v>1.29</v>
       </c>
-      <c r="J23" s="86">
+      <c r="J23" s="85">
         <v>1.8</v>
       </c>
-      <c r="K23" s="85">
+      <c r="K23" s="84">
         <v>0.8</v>
       </c>
-      <c r="L23" s="85">
+      <c r="L23" s="84">
         <v>30</v>
       </c>
-      <c r="M23" s="87">
-        <v>1</v>
-      </c>
-      <c r="N23" s="85">
+      <c r="M23" s="86">
+        <v>1</v>
+      </c>
+      <c r="N23" s="84">
         <v>120</v>
       </c>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85">
+      <c r="O23" s="84"/>
+      <c r="P23" s="84">
         <v>3</v>
       </c>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="86">
+      <c r="Q23" s="84"/>
+      <c r="R23" s="85">
         <v>0.8</v>
       </c>
-      <c r="S23" s="89">
-        <v>1</v>
-      </c>
-      <c r="T23" s="89">
+      <c r="S23" s="88">
+        <v>1</v>
+      </c>
+      <c r="T23" s="88">
         <v>0.8</v>
       </c>
-      <c r="U23" s="86" t="s">
+      <c r="U23" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="89">
+      <c r="V23" s="88">
         <v>1.5</v>
       </c>
-      <c r="W23" s="89">
-        <v>1</v>
-      </c>
-      <c r="X23" s="89">
+      <c r="W23" s="88">
+        <v>1</v>
+      </c>
+      <c r="X23" s="88">
         <v>0.35</v>
       </c>
-      <c r="Y23" s="88" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z23" s="91" t="s">
+      <c r="Y23" s="87" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z23" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="AA23" s="91" t="s">
+      <c r="AA23" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="AD23" s="92">
+      <c r="AD23" s="91">
         <v>6300</v>
       </c>
-      <c r="AE23" s="92">
+      <c r="AE23" s="91">
         <v>2</v>
       </c>
-      <c r="AF23" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH23" s="91" t="str">
+      <c r="AF23" s="91">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH23" s="90" t="str">
         <f>VLOOKUP(C23,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
       </c>
-      <c r="AJ23" s="91" t="s">
-        <v>298</v>
+      <c r="AJ23" s="90" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:36" s="9" customFormat="1">
@@ -6396,22 +6358,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I24" s="5">
         <v>0.94</v>
@@ -6458,7 +6420,7 @@
         <v>0.8</v>
       </c>
       <c r="Y24" s="49" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="Z24" s="8" t="s">
         <v>26</v>
@@ -6473,14 +6435,14 @@
         <v>1.2</v>
       </c>
       <c r="AG24" s="8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AH24" s="65" t="str">
         <f>VLOOKUP(C24,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/j_0015 1/j_0015 2</v>
       </c>
       <c r="AJ24" s="8" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:36" s="9" customFormat="1">
@@ -6491,22 +6453,22 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
@@ -6553,7 +6515,7 @@
         <v>0.7</v>
       </c>
       <c r="Y25" s="49" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="Z25" s="8" t="s">
         <v>26</v>
@@ -6572,7 +6534,7 @@
         <v>fish3d/j_0002 1/x_0004</v>
       </c>
       <c r="AJ25" s="8" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:36" s="27" customFormat="1">
@@ -6586,19 +6548,19 @@
         <v>54</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>72</v>
+        <v>119</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>608</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I26" s="22">
         <v>1.44</v>
@@ -6645,7 +6607,7 @@
         <v>0.35</v>
       </c>
       <c r="Y26" s="49" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="Z26" s="26" t="s">
         <v>49</v>
@@ -6665,210 +6627,210 @@
       </c>
       <c r="AH26" s="65"/>
       <c r="AJ26" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" s="92" customFormat="1">
-      <c r="A27" s="85">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" s="91" customFormat="1">
+      <c r="A27" s="84">
         <v>26</v>
       </c>
-      <c r="B27" s="85">
+      <c r="B27" s="84">
         <v>26</v>
       </c>
-      <c r="C27" s="86" t="s">
-        <v>560</v>
-      </c>
-      <c r="D27" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="E27" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="H27" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="86">
+      <c r="C27" s="85" t="s">
+        <v>548</v>
+      </c>
+      <c r="D27" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="85" t="s">
+        <v>609</v>
+      </c>
+      <c r="G27" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="H27" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="85">
         <v>3.77</v>
       </c>
-      <c r="J27" s="86">
+      <c r="J27" s="85">
         <v>2.8</v>
       </c>
-      <c r="K27" s="85">
+      <c r="K27" s="84">
         <v>0.8</v>
       </c>
-      <c r="L27" s="85">
+      <c r="L27" s="84">
         <v>30</v>
       </c>
-      <c r="M27" s="87">
-        <v>1</v>
-      </c>
-      <c r="N27" s="85">
+      <c r="M27" s="86">
+        <v>1</v>
+      </c>
+      <c r="N27" s="84">
         <v>180</v>
       </c>
-      <c r="O27" s="85" t="s">
-        <v>567</v>
-      </c>
-      <c r="P27" s="85">
+      <c r="O27" s="84" t="s">
+        <v>555</v>
+      </c>
+      <c r="P27" s="84">
         <v>4</v>
       </c>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="86">
+      <c r="Q27" s="87"/>
+      <c r="R27" s="85">
         <v>0.7</v>
       </c>
-      <c r="S27" s="89">
-        <v>1</v>
-      </c>
-      <c r="T27" s="89">
+      <c r="S27" s="88">
+        <v>1</v>
+      </c>
+      <c r="T27" s="88">
         <v>0.74</v>
       </c>
-      <c r="U27" s="86" t="s">
+      <c r="U27" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="V27" s="89">
-        <v>1</v>
-      </c>
-      <c r="W27" s="89">
-        <v>1</v>
-      </c>
-      <c r="X27" s="89">
+      <c r="V27" s="88">
+        <v>1</v>
+      </c>
+      <c r="W27" s="88">
+        <v>1</v>
+      </c>
+      <c r="X27" s="88">
         <v>0.35</v>
       </c>
-      <c r="Y27" s="88" t="s">
-        <v>349</v>
-      </c>
-      <c r="Z27" s="91" t="s">
+      <c r="Y27" s="87" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z27" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="AA27" s="91" t="s">
+      <c r="AA27" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="AC27" s="91"/>
-      <c r="AD27" s="92">
+      <c r="AC27" s="90"/>
+      <c r="AD27" s="91">
         <v>5900</v>
       </c>
-      <c r="AE27" s="92">
+      <c r="AE27" s="91">
         <v>2</v>
       </c>
-      <c r="AF27" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH27" s="91" t="str">
+      <c r="AF27" s="91">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH27" s="90" t="str">
         <f>VLOOKUP(C27,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Dabaisha/Bone001/Dabaisha_Body</v>
       </c>
-      <c r="AJ27" s="91" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" s="92" customFormat="1">
-      <c r="A28" s="85">
+      <c r="AJ27" s="90" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" s="91" customFormat="1">
+      <c r="A28" s="84">
         <v>27</v>
       </c>
-      <c r="B28" s="85">
+      <c r="B28" s="84">
         <v>27</v>
       </c>
-      <c r="C28" s="86" t="s">
-        <v>561</v>
-      </c>
-      <c r="D28" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="E28" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="H28" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" s="86">
+      <c r="C28" s="85" t="s">
+        <v>549</v>
+      </c>
+      <c r="D28" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="H28" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="85">
         <v>2.64</v>
       </c>
-      <c r="J28" s="86">
+      <c r="J28" s="85">
         <v>2.38</v>
       </c>
-      <c r="K28" s="85">
+      <c r="K28" s="84">
         <v>0.8</v>
       </c>
-      <c r="L28" s="85">
+      <c r="L28" s="84">
         <v>30</v>
       </c>
-      <c r="M28" s="95">
-        <v>1</v>
-      </c>
-      <c r="N28" s="85">
+      <c r="M28" s="94">
+        <v>1</v>
+      </c>
+      <c r="N28" s="84">
         <v>200</v>
       </c>
-      <c r="O28" s="85" t="s">
-        <v>567</v>
-      </c>
-      <c r="P28" s="85">
+      <c r="O28" s="84" t="s">
+        <v>555</v>
+      </c>
+      <c r="P28" s="84">
         <v>4</v>
       </c>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="86">
+      <c r="Q28" s="87"/>
+      <c r="R28" s="85">
         <v>1.2</v>
       </c>
-      <c r="S28" s="89">
+      <c r="S28" s="88">
         <v>0.73333333333333328</v>
       </c>
-      <c r="T28" s="89">
+      <c r="T28" s="88">
         <v>0.74</v>
       </c>
-      <c r="U28" s="86" t="s">
+      <c r="U28" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="V28" s="89">
-        <v>1</v>
-      </c>
-      <c r="W28" s="89">
+      <c r="V28" s="88">
+        <v>1</v>
+      </c>
+      <c r="W28" s="88">
         <v>0.8</v>
       </c>
-      <c r="X28" s="89">
+      <c r="X28" s="88">
         <v>0.1</v>
       </c>
-      <c r="Y28" s="88" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z28" s="91" t="s">
+      <c r="Y28" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z28" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="AA28" s="91" t="s">
+      <c r="AA28" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="AB28" s="91"/>
-      <c r="AC28" s="91"/>
-      <c r="AD28" s="92">
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="91">
         <v>5800</v>
       </c>
-      <c r="AE28" s="92">
+      <c r="AE28" s="91">
         <v>2</v>
       </c>
-      <c r="AF28" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH28" s="91" t="str">
+      <c r="AF28" s="91">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH28" s="90" t="str">
         <f>VLOOKUP(C28,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
-      <c r="AJ28" s="91" t="s">
-        <v>303</v>
+      <c r="AJ28" s="90" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:36" s="27" customFormat="1">
@@ -6879,22 +6841,22 @@
         <v>28</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I29" s="23">
         <v>2.1</v>
@@ -6962,7 +6924,7 @@
         <v>fish3d/gny_0008 1/gny_0008 2</v>
       </c>
       <c r="AJ29" s="26" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:36" s="27" customFormat="1">
@@ -6976,19 +6938,19 @@
         <v>55</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I30" s="22">
         <v>1.68</v>
@@ -7035,7 +6997,7 @@
         <v>0.35</v>
       </c>
       <c r="Y30" s="29" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Z30" s="26" t="s">
         <v>42</v>
@@ -7054,7 +7016,7 @@
       </c>
       <c r="AH30" s="65"/>
       <c r="AJ30" s="8" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:36" s="27" customFormat="1">
@@ -7065,22 +7027,22 @@
         <v>30</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>57</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I31" s="23">
         <v>1.48</v>
@@ -7126,7 +7088,7 @@
         <v>0.35</v>
       </c>
       <c r="Y31" s="29" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="Z31" s="26" t="s">
         <v>40</v>
@@ -7146,7 +7108,7 @@
       </c>
       <c r="AH31" s="65"/>
       <c r="AJ31" s="8" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:36" s="27" customFormat="1">
@@ -7157,22 +7119,22 @@
         <v>31</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I32" s="23">
         <v>1.48</v>
@@ -7219,7 +7181,7 @@
         <v>0.35</v>
       </c>
       <c r="Y32" s="29" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Z32" s="26" t="s">
         <v>40</v>
@@ -7242,7 +7204,7 @@
       </c>
       <c r="AH32" s="65"/>
       <c r="AJ32" s="8" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:36" s="27" customFormat="1">
@@ -7253,22 +7215,22 @@
         <v>32</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I33" s="22">
         <v>1.56</v>
@@ -7334,7 +7296,7 @@
       <c r="AH33" s="65"/>
       <c r="AI33" s="30"/>
       <c r="AJ33" s="8" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:36" s="27" customFormat="1">
@@ -7345,22 +7307,22 @@
         <v>33</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I34" s="22">
         <v>4.9000000000000004</v>
@@ -7407,7 +7369,7 @@
         <v>0.35</v>
       </c>
       <c r="Y34" s="29" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="Z34" s="26" t="s">
         <v>40</v>
@@ -7428,7 +7390,7 @@
       <c r="AH34" s="65"/>
       <c r="AI34" s="31"/>
       <c r="AJ34" s="8" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:36" s="27" customFormat="1">
@@ -7439,22 +7401,22 @@
         <v>34</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I35" s="22">
         <v>1.1299999999999999</v>
@@ -7519,7 +7481,7 @@
       </c>
       <c r="AI35" s="31"/>
       <c r="AJ35" s="8" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:36" s="27" customFormat="1">
@@ -7530,22 +7492,22 @@
         <v>35</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I36" s="22">
         <v>0.78</v>
@@ -7613,7 +7575,7 @@
       </c>
       <c r="AI36" s="31"/>
       <c r="AJ36" s="8" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:36" s="27" customFormat="1">
@@ -7624,22 +7586,22 @@
         <v>36</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I37" s="22">
         <v>1.76</v>
@@ -7702,7 +7664,7 @@
         <v>2</v>
       </c>
       <c r="AG37" s="26" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="AH37" s="65" t="str">
         <f>VLOOKUP(C37,Sheet1!$D$2:$F$124,3,FALSE)</f>
@@ -7710,7 +7672,7 @@
       </c>
       <c r="AI37" s="31"/>
       <c r="AJ37" s="8" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:36" s="47" customFormat="1">
@@ -7721,22 +7683,22 @@
         <v>37</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G38" s="45" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I38" s="44">
         <v>2.64</v>
@@ -7771,7 +7733,7 @@
         <v>0.74</v>
       </c>
       <c r="U38" s="44" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="V38" s="46">
         <v>1</v>
@@ -7784,7 +7746,7 @@
       </c>
       <c r="Y38" s="43"/>
       <c r="Z38" s="47" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="AA38" s="47" t="s">
         <v>62</v>
@@ -7816,22 +7778,22 @@
         <v>38</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I39" s="33">
         <v>10</v>
@@ -7866,7 +7828,7 @@
         <v>0.74</v>
       </c>
       <c r="U39" s="33" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="V39" s="35">
         <v>1</v>
@@ -7879,7 +7841,7 @@
       </c>
       <c r="Y39" s="32"/>
       <c r="Z39" s="36" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AA39" s="36" t="s">
         <v>50</v>
@@ -7895,111 +7857,109 @@
       </c>
       <c r="AH39" s="65"/>
       <c r="AI39" s="37" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="AJ39" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" s="100" customFormat="1">
-      <c r="A40" s="96">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" s="99" customFormat="1">
+      <c r="A40" s="95">
         <v>39</v>
       </c>
-      <c r="B40" s="96">
+      <c r="B40" s="95">
         <v>39</v>
       </c>
-      <c r="C40" s="97" t="s">
-        <v>564</v>
-      </c>
-      <c r="D40" s="97" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" s="97" t="s">
-        <v>614</v>
-      </c>
-      <c r="F40" s="97" t="s">
-        <v>602</v>
-      </c>
-      <c r="G40" s="97" t="s">
-        <v>603</v>
-      </c>
-      <c r="H40" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" s="97">
+      <c r="C40" s="96" t="s">
+        <v>552</v>
+      </c>
+      <c r="D40" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="96" t="s">
+        <v>601</v>
+      </c>
+      <c r="F40" s="96" t="s">
+        <v>589</v>
+      </c>
+      <c r="G40" s="96" t="s">
+        <v>590</v>
+      </c>
+      <c r="H40" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" s="96">
         <v>1.68</v>
       </c>
-      <c r="J40" s="97">
+      <c r="J40" s="96">
         <v>2.84</v>
       </c>
-      <c r="K40" s="96">
+      <c r="K40" s="95">
         <v>0.8</v>
       </c>
-      <c r="L40" s="96">
+      <c r="L40" s="95">
         <v>30</v>
       </c>
-      <c r="M40" s="97">
-        <v>1</v>
-      </c>
-      <c r="N40" s="96">
+      <c r="M40" s="96">
+        <v>1</v>
+      </c>
+      <c r="N40" s="95">
         <v>200</v>
       </c>
-      <c r="O40" s="98" t="s">
-        <v>569</v>
-      </c>
-      <c r="P40" s="96">
+      <c r="O40" s="97"/>
+      <c r="P40" s="95">
         <v>3</v>
       </c>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="97">
+      <c r="Q40" s="95"/>
+      <c r="R40" s="96">
         <v>0.7</v>
       </c>
-      <c r="S40" s="99">
-        <v>1</v>
-      </c>
-      <c r="T40" s="99">
+      <c r="S40" s="98">
+        <v>1</v>
+      </c>
+      <c r="T40" s="98">
         <v>0.74</v>
       </c>
-      <c r="U40" s="97" t="s">
+      <c r="U40" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="V40" s="99">
-        <v>1</v>
-      </c>
-      <c r="W40" s="99">
-        <v>1</v>
-      </c>
-      <c r="X40" s="99">
+      <c r="V40" s="98">
+        <v>1</v>
+      </c>
+      <c r="W40" s="98">
+        <v>1</v>
+      </c>
+      <c r="X40" s="98">
         <v>0.35</v>
       </c>
-      <c r="Y40" s="96"/>
-      <c r="Z40" s="100" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA40" s="100" t="s">
+      <c r="Y40" s="95"/>
+      <c r="Z40" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA40" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="AD40" s="100">
+      <c r="AD40" s="99">
         <v>9100</v>
       </c>
-      <c r="AE40" s="100">
+      <c r="AE40" s="99">
         <v>2</v>
       </c>
-      <c r="AF40" s="100">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH40" s="91" t="str">
+      <c r="AF40" s="99">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH40" s="90" t="str">
         <f>VLOOKUP(C40,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/GameCY/FourFishs/1/dizuo/Camera/diwangxie/Pangxie_body</v>
       </c>
-      <c r="AI40" s="101" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ40" s="91" t="s">
-        <v>309</v>
+      <c r="AI40" s="100" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ40" s="90" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:36" s="36" customFormat="1">
@@ -8010,22 +7970,22 @@
         <v>40</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I41" s="33">
         <v>7.28</v>
@@ -8089,107 +8049,107 @@
       </c>
       <c r="AH41" s="65"/>
       <c r="AI41" s="37" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AJ41" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" s="100" customFormat="1">
-      <c r="A42" s="96">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" s="99" customFormat="1">
+      <c r="A42" s="95">
         <v>41</v>
       </c>
-      <c r="B42" s="96">
+      <c r="B42" s="95">
         <v>41</v>
       </c>
-      <c r="C42" s="97" t="s">
-        <v>613</v>
-      </c>
-      <c r="D42" s="97" t="s">
-        <v>259</v>
-      </c>
-      <c r="E42" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="F42" s="97" t="s">
-        <v>599</v>
-      </c>
-      <c r="G42" s="97" t="s">
-        <v>604</v>
-      </c>
-      <c r="H42" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42" s="97">
-        <v>1</v>
-      </c>
-      <c r="J42" s="97">
+      <c r="C42" s="96" t="s">
+        <v>600</v>
+      </c>
+      <c r="D42" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="96" t="s">
+        <v>586</v>
+      </c>
+      <c r="G42" s="96" t="s">
+        <v>591</v>
+      </c>
+      <c r="H42" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42" s="96">
+        <v>1</v>
+      </c>
+      <c r="J42" s="96">
         <v>1.5</v>
       </c>
-      <c r="K42" s="96">
+      <c r="K42" s="95">
         <v>0.8</v>
       </c>
-      <c r="L42" s="96">
+      <c r="L42" s="95">
         <v>30</v>
       </c>
-      <c r="M42" s="97">
-        <v>1</v>
-      </c>
-      <c r="N42" s="96">
+      <c r="M42" s="96">
+        <v>1</v>
+      </c>
+      <c r="N42" s="95">
         <v>300</v>
       </c>
-      <c r="O42" s="85"/>
-      <c r="P42" s="96">
+      <c r="O42" s="84"/>
+      <c r="P42" s="95">
         <v>2</v>
       </c>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="97">
+      <c r="Q42" s="95"/>
+      <c r="R42" s="96">
         <v>0.55000000000000004</v>
       </c>
-      <c r="S42" s="99">
+      <c r="S42" s="98">
         <v>1.2</v>
       </c>
-      <c r="T42" s="99">
+      <c r="T42" s="98">
         <v>0.4</v>
       </c>
-      <c r="U42" s="97" t="s">
+      <c r="U42" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="V42" s="99">
-        <v>1</v>
-      </c>
-      <c r="W42" s="99">
-        <v>1</v>
-      </c>
-      <c r="X42" s="99">
+      <c r="V42" s="98">
+        <v>1</v>
+      </c>
+      <c r="W42" s="98">
+        <v>1</v>
+      </c>
+      <c r="X42" s="98">
         <v>0.5</v>
       </c>
-      <c r="Y42" s="96"/>
-      <c r="Z42" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA42" s="100" t="s">
+      <c r="Y42" s="95"/>
+      <c r="Z42" s="99" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA42" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="AD42" s="100">
+      <c r="AD42" s="99">
         <v>3200</v>
       </c>
-      <c r="AE42" s="100">
+      <c r="AE42" s="99">
         <v>1.5</v>
       </c>
-      <c r="AF42" s="100">
+      <c r="AF42" s="99">
         <v>2</v>
       </c>
-      <c r="AG42" s="92"/>
-      <c r="AH42" s="91" t="str">
+      <c r="AG42" s="91"/>
+      <c r="AH42" s="90" t="str">
         <f>VLOOKUP(C42,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3d/xb_0004 /xb_0004 1</v>
       </c>
-      <c r="AI42" s="101" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ42" s="91" t="s">
-        <v>314</v>
+      <c r="AI42" s="100" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ42" s="90" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:36" s="41" customFormat="1">
@@ -8200,22 +8160,22 @@
         <v>42</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="G43" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="39" t="s">
         <v>74</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>85</v>
       </c>
       <c r="I43" s="39">
         <v>1</v>
@@ -8263,7 +8223,7 @@
       </c>
       <c r="Y43" s="38"/>
       <c r="Z43" s="41" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AA43" s="41" t="s">
         <v>36</v>
@@ -8287,105 +8247,105 @@
       <c r="AI43" s="42"/>
       <c r="AJ43" s="42"/>
     </row>
-    <row r="44" spans="1:36" s="100" customFormat="1">
-      <c r="A44" s="96">
+    <row r="44" spans="1:36" s="99" customFormat="1">
+      <c r="A44" s="95">
         <v>43</v>
       </c>
-      <c r="B44" s="96">
+      <c r="B44" s="95">
         <v>43</v>
       </c>
-      <c r="C44" s="97" t="s">
-        <v>566</v>
-      </c>
-      <c r="D44" s="97" t="s">
-        <v>234</v>
-      </c>
-      <c r="E44" s="97" t="s">
-        <v>180</v>
-      </c>
-      <c r="F44" s="97" t="s">
-        <v>600</v>
-      </c>
-      <c r="G44" s="97" t="s">
-        <v>262</v>
-      </c>
-      <c r="H44" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="I44" s="97">
+      <c r="C44" s="96" t="s">
+        <v>554</v>
+      </c>
+      <c r="D44" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44" s="96" t="s">
+        <v>587</v>
+      </c>
+      <c r="G44" s="96" t="s">
+        <v>250</v>
+      </c>
+      <c r="H44" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" s="96">
         <v>0.96</v>
       </c>
-      <c r="J44" s="97">
+      <c r="J44" s="96">
         <v>0.83</v>
       </c>
-      <c r="K44" s="96">
+      <c r="K44" s="95">
         <v>0.8</v>
       </c>
-      <c r="L44" s="96">
+      <c r="L44" s="95">
         <v>30</v>
       </c>
-      <c r="M44" s="97">
-        <v>1</v>
-      </c>
-      <c r="N44" s="96">
+      <c r="M44" s="96">
+        <v>1</v>
+      </c>
+      <c r="N44" s="95">
         <v>500</v>
       </c>
-      <c r="O44" s="85" t="s">
-        <v>567</v>
-      </c>
-      <c r="P44" s="96">
+      <c r="O44" s="84" t="s">
+        <v>555</v>
+      </c>
+      <c r="P44" s="95">
         <v>3</v>
       </c>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="97">
+      <c r="Q44" s="95"/>
+      <c r="R44" s="96">
         <v>0.7</v>
       </c>
-      <c r="S44" s="99">
-        <v>1</v>
-      </c>
-      <c r="T44" s="99">
+      <c r="S44" s="98">
+        <v>1</v>
+      </c>
+      <c r="T44" s="98">
         <v>0.74</v>
       </c>
-      <c r="U44" s="97" t="s">
+      <c r="U44" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="V44" s="99">
-        <v>1</v>
-      </c>
-      <c r="W44" s="99">
+      <c r="V44" s="98">
+        <v>1</v>
+      </c>
+      <c r="W44" s="98">
         <v>0.7</v>
       </c>
-      <c r="X44" s="99">
+      <c r="X44" s="98">
         <v>0.35</v>
       </c>
-      <c r="Y44" s="96"/>
-      <c r="Z44" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="AA44" s="100" t="s">
+      <c r="Y44" s="95"/>
+      <c r="Z44" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA44" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="AD44" s="100">
+      <c r="AD44" s="99">
         <v>9100</v>
       </c>
-      <c r="AE44" s="100">
+      <c r="AE44" s="99">
         <v>1.5</v>
       </c>
-      <c r="AF44" s="100">
+      <c r="AF44" s="99">
         <v>2</v>
       </c>
-      <c r="AG44" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH44" s="91" t="str">
+      <c r="AG44" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH44" s="90" t="str">
         <f>VLOOKUP(C44,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/XW/Xuanwu_Body</v>
       </c>
-      <c r="AI44" s="101" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ44" s="91" t="s">
-        <v>315</v>
+      <c r="AI44" s="100" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ44" s="90" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:36" s="41" customFormat="1">
@@ -8396,22 +8356,22 @@
         <v>44</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F45" s="39" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="G45" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="39" t="s">
         <v>74</v>
-      </c>
-      <c r="H45" s="39" t="s">
-        <v>85</v>
       </c>
       <c r="I45" s="39">
         <v>1</v>
@@ -8459,7 +8419,7 @@
       </c>
       <c r="Y45" s="38"/>
       <c r="Z45" s="41" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AA45" s="41" t="s">
         <v>36</v>
@@ -8491,22 +8451,22 @@
         <v>45</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F46" s="39" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="G46" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="39" t="s">
         <v>74</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>85</v>
       </c>
       <c r="I46" s="39">
         <v>0.96</v>
@@ -8554,7 +8514,7 @@
       </c>
       <c r="Y46" s="38"/>
       <c r="Z46" s="41" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AA46" s="41" t="s">
         <v>39</v>
@@ -8575,103 +8535,103 @@
       <c r="AI46" s="42"/>
       <c r="AJ46" s="42"/>
     </row>
-    <row r="47" spans="1:36" s="100" customFormat="1">
-      <c r="A47" s="96">
+    <row r="47" spans="1:36" s="99" customFormat="1">
+      <c r="A47" s="95">
         <v>46</v>
       </c>
-      <c r="B47" s="96">
+      <c r="B47" s="95">
         <v>46</v>
       </c>
-      <c r="C47" s="97" t="s">
-        <v>580</v>
-      </c>
-      <c r="D47" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="E47" s="97" t="s">
-        <v>170</v>
-      </c>
-      <c r="F47" s="97" t="s">
-        <v>598</v>
-      </c>
-      <c r="G47" s="97" t="s">
-        <v>275</v>
-      </c>
-      <c r="H47" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="I47" s="97">
+      <c r="C47" s="96" t="s">
+        <v>567</v>
+      </c>
+      <c r="D47" s="96" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="96" t="s">
+        <v>585</v>
+      </c>
+      <c r="G47" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="H47" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47" s="96">
         <v>0.74</v>
       </c>
-      <c r="J47" s="97">
+      <c r="J47" s="96">
         <v>0.86</v>
       </c>
-      <c r="K47" s="96">
+      <c r="K47" s="95">
         <v>0.8</v>
       </c>
-      <c r="L47" s="96">
+      <c r="L47" s="95">
         <v>30</v>
       </c>
-      <c r="M47" s="97">
-        <v>1</v>
-      </c>
-      <c r="N47" s="96">
+      <c r="M47" s="96">
+        <v>1</v>
+      </c>
+      <c r="N47" s="95">
         <v>400</v>
       </c>
-      <c r="O47" s="96"/>
-      <c r="P47" s="96">
+      <c r="O47" s="95"/>
+      <c r="P47" s="95">
         <v>2</v>
       </c>
-      <c r="Q47" s="96"/>
-      <c r="R47" s="97">
+      <c r="Q47" s="95"/>
+      <c r="R47" s="96">
         <v>0.8</v>
       </c>
-      <c r="S47" s="99">
-        <v>1</v>
-      </c>
-      <c r="T47" s="99">
+      <c r="S47" s="98">
+        <v>1</v>
+      </c>
+      <c r="T47" s="98">
         <v>0.26</v>
       </c>
-      <c r="U47" s="97" t="s">
+      <c r="U47" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="V47" s="99">
+      <c r="V47" s="98">
         <v>0.8</v>
       </c>
-      <c r="W47" s="99">
-        <v>1</v>
-      </c>
-      <c r="X47" s="99">
+      <c r="W47" s="98">
+        <v>1</v>
+      </c>
+      <c r="X47" s="98">
         <v>0.4</v>
       </c>
-      <c r="Y47" s="96"/>
-      <c r="Z47" s="100" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA47" s="100" t="s">
+      <c r="Y47" s="95"/>
+      <c r="Z47" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA47" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="AD47" s="100">
+      <c r="AD47" s="99">
         <v>9100</v>
       </c>
-      <c r="AE47" s="100">
+      <c r="AE47" s="99">
         <v>1.5</v>
       </c>
-      <c r="AF47" s="100">
+      <c r="AF47" s="99">
         <v>2</v>
       </c>
-      <c r="AG47" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH47" s="91" t="str">
+      <c r="AG47" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH47" s="90" t="str">
         <f>VLOOKUP(C47,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Jinchanwang/Jinchanwang_Body</v>
       </c>
-      <c r="AI47" s="101" t="s">
-        <v>257</v>
-      </c>
-      <c r="AJ47" s="91" t="s">
-        <v>316</v>
+      <c r="AI47" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ47" s="90" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:36" s="14" customFormat="1">
@@ -8682,22 +8642,22 @@
         <v>47</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I48" s="12">
         <v>1</v>
@@ -8745,7 +8705,7 @@
       </c>
       <c r="Y48" s="11"/>
       <c r="Z48" s="14" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AA48" s="14" t="s">
         <v>36</v>
@@ -8764,111 +8724,111 @@
         <v>fish3d/gny_0005 1/gny_0005 2</v>
       </c>
       <c r="AI48" s="15" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="AJ48" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="49" spans="1:36" s="100" customFormat="1">
-      <c r="A49" s="96">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" s="99" customFormat="1">
+      <c r="A49" s="95">
         <v>48</v>
       </c>
-      <c r="B49" s="96">
+      <c r="B49" s="95">
         <v>48</v>
       </c>
-      <c r="C49" s="97" t="s">
-        <v>579</v>
-      </c>
-      <c r="D49" s="97" t="s">
-        <v>236</v>
-      </c>
-      <c r="E49" s="97" t="s">
-        <v>268</v>
-      </c>
-      <c r="F49" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="G49" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="H49" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="I49" s="97">
+      <c r="C49" s="96" t="s">
+        <v>566</v>
+      </c>
+      <c r="D49" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="96" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="G49" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="H49" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" s="96">
         <v>2</v>
       </c>
-      <c r="J49" s="97">
+      <c r="J49" s="96">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K49" s="96">
+      <c r="K49" s="95">
         <v>0.8</v>
       </c>
-      <c r="L49" s="96">
+      <c r="L49" s="95">
         <v>30</v>
       </c>
-      <c r="M49" s="97">
-        <v>1</v>
-      </c>
-      <c r="N49" s="96">
+      <c r="M49" s="96">
+        <v>1</v>
+      </c>
+      <c r="N49" s="95">
         <v>600</v>
       </c>
-      <c r="O49" s="88" t="s">
-        <v>612</v>
-      </c>
-      <c r="P49" s="96">
+      <c r="O49" s="87" t="s">
+        <v>599</v>
+      </c>
+      <c r="P49" s="95">
         <v>3</v>
       </c>
-      <c r="Q49" s="96"/>
-      <c r="R49" s="97">
+      <c r="Q49" s="95"/>
+      <c r="R49" s="96">
         <v>0.66</v>
       </c>
-      <c r="S49" s="99">
-        <v>1</v>
-      </c>
-      <c r="T49" s="99">
+      <c r="S49" s="98">
+        <v>1</v>
+      </c>
+      <c r="T49" s="98">
         <v>0.22</v>
       </c>
-      <c r="U49" s="97" t="s">
+      <c r="U49" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="V49" s="99">
+      <c r="V49" s="98">
         <v>0.8</v>
       </c>
-      <c r="W49" s="99">
-        <v>1</v>
-      </c>
-      <c r="X49" s="99">
+      <c r="W49" s="98">
+        <v>1</v>
+      </c>
+      <c r="X49" s="98">
         <v>0.45</v>
       </c>
-      <c r="Y49" s="96"/>
-      <c r="Z49" s="102" t="s">
+      <c r="Y49" s="95"/>
+      <c r="Z49" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="AA49" s="100" t="s">
+      <c r="AA49" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="AD49" s="100">
+      <c r="AD49" s="99">
         <v>9100</v>
       </c>
-      <c r="AE49" s="100">
+      <c r="AE49" s="99">
         <v>1.5</v>
       </c>
-      <c r="AF49" s="100">
+      <c r="AF49" s="99">
         <v>2</v>
       </c>
-      <c r="AG49" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH49" s="91" t="str">
+      <c r="AG49" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH49" s="90" t="str">
         <f>VLOOKUP(C49,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Eyuwang/Eyuwang_Body</v>
       </c>
-      <c r="AI49" s="101" t="s">
-        <v>288</v>
-      </c>
-      <c r="AJ49" s="91" t="s">
-        <v>318</v>
+      <c r="AI49" s="100" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ49" s="90" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:36" s="14" customFormat="1">
@@ -8879,22 +8839,22 @@
         <v>49</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I50" s="12">
         <v>2</v>
@@ -8964,10 +8924,10 @@
         <v>fish3d/xb_0007_skill/xb_0007_skill 1</v>
       </c>
       <c r="AI50" s="15" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="AJ50" s="8" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:36" s="19" customFormat="1">
@@ -8978,22 +8938,22 @@
         <v>50</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>73</v>
+        <v>610</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="I51" s="12">
         <v>2</v>
@@ -9028,7 +8988,7 @@
         <v>0.22</v>
       </c>
       <c r="U51" s="12" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="V51" s="13">
         <v>0.8</v>
@@ -9062,504 +9022,504 @@
       <c r="AI51" s="20"/>
       <c r="AJ51" s="20"/>
     </row>
-    <row r="52" spans="1:36" s="92" customFormat="1">
-      <c r="A52" s="96">
+    <row r="52" spans="1:36" s="91" customFormat="1">
+      <c r="A52" s="95">
         <v>51</v>
       </c>
-      <c r="B52" s="96">
+      <c r="B52" s="95">
         <v>51</v>
       </c>
-      <c r="C52" s="97" t="s">
-        <v>570</v>
-      </c>
-      <c r="D52" s="97" t="s">
-        <v>585</v>
-      </c>
-      <c r="E52" s="97" t="s">
-        <v>615</v>
-      </c>
-      <c r="F52" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" s="97" t="s">
-        <v>328</v>
-      </c>
-      <c r="H52" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="97">
+      <c r="C52" s="96" t="s">
+        <v>557</v>
+      </c>
+      <c r="D52" s="96" t="s">
+        <v>572</v>
+      </c>
+      <c r="E52" s="96" t="s">
+        <v>602</v>
+      </c>
+      <c r="F52" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="96" t="s">
+        <v>316</v>
+      </c>
+      <c r="H52" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" s="96">
         <v>2.64</v>
       </c>
-      <c r="J52" s="97">
+      <c r="J52" s="96">
         <v>2.38</v>
       </c>
-      <c r="K52" s="96">
+      <c r="K52" s="95">
         <v>0.8</v>
       </c>
-      <c r="L52" s="96">
+      <c r="L52" s="95">
         <v>30</v>
       </c>
-      <c r="M52" s="97">
-        <v>1</v>
-      </c>
-      <c r="N52" s="96">
+      <c r="M52" s="96">
+        <v>1</v>
+      </c>
+      <c r="N52" s="95">
         <v>200</v>
       </c>
-      <c r="O52" s="85" t="s">
-        <v>567</v>
-      </c>
-      <c r="P52" s="96">
+      <c r="O52" s="84" t="s">
+        <v>555</v>
+      </c>
+      <c r="P52" s="95">
         <v>4</v>
       </c>
-      <c r="R52" s="97">
+      <c r="R52" s="96">
         <v>0.64</v>
       </c>
-      <c r="S52" s="99">
+      <c r="S52" s="98">
         <v>0.73</v>
       </c>
-      <c r="T52" s="99">
+      <c r="T52" s="98">
         <v>0.74</v>
       </c>
-      <c r="U52" s="97" t="s">
-        <v>325</v>
-      </c>
-      <c r="V52" s="99">
-        <v>1</v>
-      </c>
-      <c r="W52" s="99">
+      <c r="U52" s="96" t="s">
+        <v>313</v>
+      </c>
+      <c r="V52" s="98">
+        <v>1</v>
+      </c>
+      <c r="W52" s="98">
         <v>0.8</v>
       </c>
-      <c r="X52" s="99">
+      <c r="X52" s="98">
         <v>0.1</v>
       </c>
-      <c r="Z52" s="102" t="s">
-        <v>326</v>
-      </c>
-      <c r="AA52" s="100" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB52" s="100"/>
-      <c r="AD52" s="100">
+      <c r="Z52" s="101" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA52" s="99" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB52" s="99"/>
+      <c r="AD52" s="99">
         <v>9000</v>
       </c>
-      <c r="AE52" s="100">
+      <c r="AE52" s="99">
         <v>1.5</v>
       </c>
-      <c r="AF52" s="100">
-        <v>1</v>
-      </c>
-      <c r="AG52" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH52" s="91" t="str">
+      <c r="AF52" s="99">
+        <v>1</v>
+      </c>
+      <c r="AG52" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH52" s="90" t="str">
         <f>VLOOKUP(C52,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Douyunvwang/liyuwang_Body</v>
       </c>
-      <c r="AI52" s="101" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="53" spans="1:36" s="92" customFormat="1">
-      <c r="A53" s="96">
+      <c r="AI52" s="100" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" s="91" customFormat="1">
+      <c r="A53" s="95">
         <v>52</v>
       </c>
-      <c r="B53" s="96">
+      <c r="B53" s="95">
         <v>52</v>
       </c>
-      <c r="C53" s="97" t="s">
-        <v>578</v>
-      </c>
-      <c r="D53" s="97" t="s">
-        <v>587</v>
-      </c>
-      <c r="E53" s="97" t="s">
-        <v>606</v>
-      </c>
-      <c r="F53" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" s="97" t="s">
-        <v>329</v>
-      </c>
-      <c r="H53" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" s="97">
+      <c r="C53" s="96" t="s">
+        <v>565</v>
+      </c>
+      <c r="D53" s="96" t="s">
+        <v>574</v>
+      </c>
+      <c r="E53" s="96" t="s">
+        <v>593</v>
+      </c>
+      <c r="F53" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="96" t="s">
+        <v>317</v>
+      </c>
+      <c r="H53" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53" s="96">
         <v>2.64</v>
       </c>
-      <c r="J53" s="97">
+      <c r="J53" s="96">
         <v>2.38</v>
       </c>
-      <c r="K53" s="96">
+      <c r="K53" s="95">
         <v>0.8</v>
       </c>
-      <c r="L53" s="96">
+      <c r="L53" s="95">
         <v>30</v>
       </c>
-      <c r="M53" s="97">
-        <v>1</v>
-      </c>
-      <c r="N53" s="96">
+      <c r="M53" s="96">
+        <v>1</v>
+      </c>
+      <c r="N53" s="95">
         <v>200</v>
       </c>
-      <c r="O53" s="85" t="s">
-        <v>567</v>
-      </c>
-      <c r="P53" s="96">
+      <c r="O53" s="84" t="s">
+        <v>555</v>
+      </c>
+      <c r="P53" s="95">
         <v>4</v>
       </c>
-      <c r="R53" s="97">
+      <c r="R53" s="96">
         <v>0.64</v>
       </c>
-      <c r="S53" s="99">
+      <c r="S53" s="98">
         <v>0.73</v>
       </c>
-      <c r="T53" s="99">
+      <c r="T53" s="98">
         <v>0.74</v>
       </c>
-      <c r="U53" s="97" t="s">
-        <v>291</v>
-      </c>
-      <c r="V53" s="99">
-        <v>1</v>
-      </c>
-      <c r="W53" s="99">
+      <c r="U53" s="96" t="s">
+        <v>279</v>
+      </c>
+      <c r="V53" s="98">
+        <v>1</v>
+      </c>
+      <c r="W53" s="98">
         <v>0.8</v>
       </c>
-      <c r="X53" s="99">
+      <c r="X53" s="98">
         <v>0.1</v>
       </c>
-      <c r="Z53" s="102" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA53" s="100" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB53" s="100"/>
-      <c r="AD53" s="100">
+      <c r="Z53" s="101" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA53" s="99" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB53" s="99"/>
+      <c r="AD53" s="99">
         <v>9000</v>
       </c>
-      <c r="AE53" s="100">
+      <c r="AE53" s="99">
         <v>1.5</v>
       </c>
-      <c r="AF53" s="92">
-        <v>1</v>
-      </c>
-      <c r="AG53" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH53" s="91" t="str">
+      <c r="AF53" s="91">
+        <v>1</v>
+      </c>
+      <c r="AG53" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH53" s="90" t="str">
         <f>VLOOKUP(C53,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Lanlongxia/longxia_Body</v>
       </c>
-      <c r="AI53" s="101" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="54" spans="1:36" s="92" customFormat="1">
-      <c r="A54" s="85">
+      <c r="AI53" s="100" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" s="91" customFormat="1">
+      <c r="A54" s="84">
         <v>53</v>
       </c>
-      <c r="B54" s="85">
+      <c r="B54" s="84">
         <v>53</v>
       </c>
-      <c r="C54" s="86" t="s">
-        <v>571</v>
-      </c>
-      <c r="D54" s="86" t="s">
-        <v>589</v>
-      </c>
-      <c r="E54" s="97" t="s">
-        <v>607</v>
-      </c>
-      <c r="F54" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="H54" s="97" t="s">
+      <c r="C54" s="85" t="s">
+        <v>558</v>
+      </c>
+      <c r="D54" s="85" t="s">
+        <v>576</v>
+      </c>
+      <c r="E54" s="96" t="s">
+        <v>594</v>
+      </c>
+      <c r="F54" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="96" t="s">
+        <v>570</v>
+      </c>
+      <c r="I54" s="85">
+        <v>0.96</v>
+      </c>
+      <c r="J54" s="85">
+        <v>0.68</v>
+      </c>
+      <c r="K54" s="84">
+        <v>0.8</v>
+      </c>
+      <c r="L54" s="84">
+        <v>30</v>
+      </c>
+      <c r="M54" s="86">
+        <v>1</v>
+      </c>
+      <c r="N54" s="84">
+        <v>200</v>
+      </c>
+      <c r="O54" s="84" t="s">
+        <v>555</v>
+      </c>
+      <c r="P54" s="84">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="85">
+        <v>0.7</v>
+      </c>
+      <c r="S54" s="88">
+        <v>1</v>
+      </c>
+      <c r="T54" s="88">
+        <v>0.8</v>
+      </c>
+      <c r="U54" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="V54" s="88">
+        <v>0.7</v>
+      </c>
+      <c r="W54" s="88">
+        <v>1</v>
+      </c>
+      <c r="X54" s="88">
+        <v>0.35</v>
+      </c>
+      <c r="Y54" s="84"/>
+      <c r="Z54" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA54" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD54" s="91">
+        <v>9000</v>
+      </c>
+      <c r="AE54" s="91">
+        <v>1.5</v>
+      </c>
+      <c r="AF54" s="91">
+        <v>2</v>
+      </c>
+      <c r="AG54" s="91" t="s">
         <v>583</v>
       </c>
-      <c r="I54" s="86">
-        <v>0.96</v>
-      </c>
-      <c r="J54" s="86">
-        <v>0.68</v>
-      </c>
-      <c r="K54" s="85">
-        <v>0.8</v>
-      </c>
-      <c r="L54" s="85">
-        <v>30</v>
-      </c>
-      <c r="M54" s="87">
-        <v>1</v>
-      </c>
-      <c r="N54" s="85">
-        <v>200</v>
-      </c>
-      <c r="O54" s="85" t="s">
-        <v>567</v>
-      </c>
-      <c r="P54" s="85">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="85"/>
-      <c r="R54" s="86">
-        <v>0.7</v>
-      </c>
-      <c r="S54" s="89">
-        <v>1</v>
-      </c>
-      <c r="T54" s="89">
-        <v>0.8</v>
-      </c>
-      <c r="U54" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="V54" s="89">
-        <v>0.7</v>
-      </c>
-      <c r="W54" s="89">
-        <v>1</v>
-      </c>
-      <c r="X54" s="89">
-        <v>0.35</v>
-      </c>
-      <c r="Y54" s="85"/>
-      <c r="Z54" s="91" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA54" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD54" s="92">
-        <v>9000</v>
-      </c>
-      <c r="AE54" s="92">
-        <v>1.5</v>
-      </c>
-      <c r="AF54" s="92">
-        <v>2</v>
-      </c>
-      <c r="AG54" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH54" s="91" t="str">
+      <c r="AH54" s="90" t="str">
         <f>VLOOKUP(C54,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Lanjing/Jingyu_Body</v>
       </c>
-      <c r="AI54" s="101" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ54" s="91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:36" s="92" customFormat="1">
-      <c r="A55" s="85">
+      <c r="AI54" s="100" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ54" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" s="91" customFormat="1">
+      <c r="A55" s="84">
         <v>54</v>
       </c>
-      <c r="B55" s="85">
+      <c r="B55" s="84">
         <v>54</v>
       </c>
-      <c r="C55" s="86" t="s">
-        <v>572</v>
-      </c>
-      <c r="D55" s="86" t="s">
-        <v>590</v>
-      </c>
-      <c r="E55" s="86" t="s">
-        <v>605</v>
-      </c>
-      <c r="F55" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="H55" s="97" t="s">
-        <v>584</v>
-      </c>
-      <c r="I55" s="86">
+      <c r="C55" s="85" t="s">
+        <v>559</v>
+      </c>
+      <c r="D55" s="85" t="s">
+        <v>577</v>
+      </c>
+      <c r="E55" s="85" t="s">
+        <v>592</v>
+      </c>
+      <c r="F55" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" s="96" t="s">
+        <v>571</v>
+      </c>
+      <c r="I55" s="85">
         <v>1.53</v>
       </c>
-      <c r="J55" s="86">
+      <c r="J55" s="85">
         <v>1.48</v>
       </c>
-      <c r="K55" s="85">
+      <c r="K55" s="84">
         <v>0.8</v>
       </c>
-      <c r="L55" s="85">
+      <c r="L55" s="84">
         <v>30</v>
       </c>
-      <c r="M55" s="87">
-        <v>1</v>
-      </c>
-      <c r="N55" s="85">
+      <c r="M55" s="86">
+        <v>1</v>
+      </c>
+      <c r="N55" s="84">
         <v>200</v>
       </c>
-      <c r="O55" s="85" t="s">
-        <v>567</v>
-      </c>
-      <c r="P55" s="85">
+      <c r="O55" s="84" t="s">
+        <v>555</v>
+      </c>
+      <c r="P55" s="84">
         <v>4</v>
       </c>
-      <c r="Q55" s="85"/>
-      <c r="R55" s="86">
+      <c r="Q55" s="84"/>
+      <c r="R55" s="85">
         <v>0.7</v>
       </c>
-      <c r="S55" s="89">
-        <v>1</v>
-      </c>
-      <c r="T55" s="89">
+      <c r="S55" s="88">
+        <v>1</v>
+      </c>
+      <c r="T55" s="88">
         <v>0.6</v>
       </c>
-      <c r="U55" s="86" t="s">
+      <c r="U55" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="V55" s="89">
+      <c r="V55" s="88">
         <v>0.7</v>
       </c>
-      <c r="W55" s="89">
-        <v>1</v>
-      </c>
-      <c r="X55" s="89">
+      <c r="W55" s="88">
+        <v>1</v>
+      </c>
+      <c r="X55" s="88">
         <v>0.35</v>
       </c>
-      <c r="Y55" s="85"/>
-      <c r="Z55" s="91" t="s">
+      <c r="Y55" s="84"/>
+      <c r="Z55" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="AA55" s="91" t="s">
+      <c r="AA55" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AD55" s="92">
+      <c r="AD55" s="91">
         <v>9000</v>
       </c>
-      <c r="AE55" s="92">
+      <c r="AE55" s="91">
         <v>1.5</v>
       </c>
-      <c r="AF55" s="92">
+      <c r="AF55" s="91">
         <v>2</v>
       </c>
-      <c r="AG55" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH55" s="91" t="str">
+      <c r="AG55" s="91" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH55" s="90" t="str">
         <f>VLOOKUP(C55,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Haixiang/Haixiang_Body</v>
       </c>
-      <c r="AI55" s="101" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ55" s="91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="56" spans="1:36" s="92" customFormat="1">
-      <c r="A56" s="85">
+      <c r="AI55" s="100" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ55" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" s="91" customFormat="1">
+      <c r="A56" s="84">
         <v>55</v>
       </c>
-      <c r="B56" s="85">
+      <c r="B56" s="84">
         <v>55</v>
       </c>
-      <c r="C56" s="86" t="s">
+      <c r="C56" s="85" t="s">
+        <v>560</v>
+      </c>
+      <c r="D56" s="85" t="s">
         <v>573</v>
       </c>
-      <c r="D56" s="86" t="s">
-        <v>586</v>
-      </c>
-      <c r="E56" s="86" t="s">
-        <v>608</v>
-      </c>
-      <c r="F56" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="H56" s="97" t="s">
+      <c r="E56" s="85" t="s">
+        <v>595</v>
+      </c>
+      <c r="F56" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="H56" s="96" t="s">
+        <v>570</v>
+      </c>
+      <c r="I56" s="85">
+        <v>1.53</v>
+      </c>
+      <c r="J56" s="85">
+        <v>1.48</v>
+      </c>
+      <c r="K56" s="84">
+        <v>0.8</v>
+      </c>
+      <c r="L56" s="84">
+        <v>30</v>
+      </c>
+      <c r="M56" s="86">
+        <v>1</v>
+      </c>
+      <c r="N56" s="84">
+        <v>200</v>
+      </c>
+      <c r="O56" s="84" t="s">
+        <v>555</v>
+      </c>
+      <c r="P56" s="84">
+        <v>4</v>
+      </c>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="85">
+        <v>0.7</v>
+      </c>
+      <c r="S56" s="88">
+        <v>1</v>
+      </c>
+      <c r="T56" s="88">
+        <v>0.6</v>
+      </c>
+      <c r="U56" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="V56" s="88">
+        <v>1.4</v>
+      </c>
+      <c r="W56" s="88">
+        <v>1</v>
+      </c>
+      <c r="X56" s="88">
+        <v>0.35</v>
+      </c>
+      <c r="Y56" s="84"/>
+      <c r="Z56" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA56" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD56" s="91">
+        <v>9000</v>
+      </c>
+      <c r="AE56" s="91">
+        <v>1.5</v>
+      </c>
+      <c r="AF56" s="91">
+        <v>2</v>
+      </c>
+      <c r="AG56" s="91" t="s">
         <v>583</v>
       </c>
-      <c r="I56" s="86">
-        <v>1.53</v>
-      </c>
-      <c r="J56" s="86">
-        <v>1.48</v>
-      </c>
-      <c r="K56" s="85">
-        <v>0.8</v>
-      </c>
-      <c r="L56" s="85">
-        <v>30</v>
-      </c>
-      <c r="M56" s="87">
-        <v>1</v>
-      </c>
-      <c r="N56" s="85">
-        <v>200</v>
-      </c>
-      <c r="O56" s="85" t="s">
-        <v>567</v>
-      </c>
-      <c r="P56" s="85">
-        <v>4</v>
-      </c>
-      <c r="Q56" s="85"/>
-      <c r="R56" s="86">
-        <v>0.7</v>
-      </c>
-      <c r="S56" s="89">
-        <v>1</v>
-      </c>
-      <c r="T56" s="89">
-        <v>0.6</v>
-      </c>
-      <c r="U56" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="V56" s="89">
-        <v>1.4</v>
-      </c>
-      <c r="W56" s="89">
-        <v>1</v>
-      </c>
-      <c r="X56" s="89">
-        <v>0.35</v>
-      </c>
-      <c r="Y56" s="85"/>
-      <c r="Z56" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA56" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD56" s="92">
-        <v>9000</v>
-      </c>
-      <c r="AE56" s="92">
-        <v>1.5</v>
-      </c>
-      <c r="AF56" s="92">
-        <v>2</v>
-      </c>
-      <c r="AG56" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH56" s="91" t="str">
+      <c r="AH56" s="90" t="str">
         <f>VLOOKUP(C56,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3dnode/fish3d/fish/Shitousha/Shitousha_Body</v>
       </c>
-      <c r="AI56" s="101" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ56" s="91" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:36" s="77" customFormat="1">
+      <c r="AI56" s="100" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ56" s="90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" s="76" customFormat="1">
       <c r="A57" s="71">
         <v>56</v>
       </c>
@@ -9567,22 +9527,22 @@
         <v>56</v>
       </c>
       <c r="C57" s="72" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D57" s="72" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E57" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="73" t="s">
-        <v>71</v>
+      <c r="F57" s="72" t="s">
+        <v>607</v>
       </c>
       <c r="G57" s="72" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="H57" s="72" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I57" s="72">
         <v>0.66</v>
@@ -9596,7 +9556,7 @@
       <c r="L57" s="71">
         <v>30</v>
       </c>
-      <c r="M57" s="74">
+      <c r="M57" s="73">
         <v>1</v>
       </c>
       <c r="N57" s="71">
@@ -9610,475 +9570,475 @@
       <c r="R57" s="72">
         <v>0.8</v>
       </c>
-      <c r="S57" s="75">
-        <v>1</v>
-      </c>
-      <c r="T57" s="75">
+      <c r="S57" s="74">
+        <v>1</v>
+      </c>
+      <c r="T57" s="74">
         <v>0.74</v>
       </c>
       <c r="U57" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="V57" s="75">
+      <c r="V57" s="74">
         <v>0.7</v>
       </c>
-      <c r="W57" s="75">
-        <v>1</v>
-      </c>
-      <c r="X57" s="75">
+      <c r="W57" s="74">
+        <v>1</v>
+      </c>
+      <c r="X57" s="74">
         <v>0.35</v>
       </c>
       <c r="Y57" s="71"/>
-      <c r="Z57" s="76" t="s">
+      <c r="Z57" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="AA57" s="76" t="s">
+      <c r="AA57" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="AD57" s="77">
+      <c r="AD57" s="76">
         <v>7100</v>
       </c>
-      <c r="AE57" s="77">
+      <c r="AE57" s="76">
         <v>1.5</v>
       </c>
-      <c r="AF57" s="77">
+      <c r="AF57" s="76">
         <v>2</v>
       </c>
-      <c r="AH57" s="76" t="str">
+      <c r="AH57" s="75" t="str">
         <f>VLOOKUP(C57,Sheet1!$D$2:$F$124,3,FALSE)</f>
         <v>fish3d/z_0007 1/z_0007 2</v>
       </c>
-      <c r="AJ57" s="76" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="58" spans="1:36" s="77" customFormat="1">
-      <c r="A58" s="78">
+      <c r="AJ57" s="75" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" s="76" customFormat="1">
+      <c r="A58" s="77">
         <v>57</v>
       </c>
-      <c r="B58" s="78">
+      <c r="B58" s="77">
         <v>57</v>
       </c>
-      <c r="C58" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="D58" s="79" t="s">
-        <v>333</v>
-      </c>
-      <c r="E58" s="79" t="s">
-        <v>335</v>
-      </c>
-      <c r="F58" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="G58" s="79" t="s">
-        <v>334</v>
-      </c>
-      <c r="H58" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="I58" s="79">
+      <c r="C58" s="78" t="s">
+        <v>320</v>
+      </c>
+      <c r="D58" s="78" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58" s="78" t="s">
+        <v>323</v>
+      </c>
+      <c r="F58" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="G58" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="H58" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="I58" s="78">
         <v>2.64</v>
       </c>
-      <c r="J58" s="79">
+      <c r="J58" s="78">
         <v>2.38</v>
       </c>
-      <c r="K58" s="78">
-        <v>1</v>
-      </c>
-      <c r="L58" s="78">
+      <c r="K58" s="77">
+        <v>1</v>
+      </c>
+      <c r="L58" s="77">
         <v>30</v>
       </c>
-      <c r="M58" s="79">
-        <v>1</v>
-      </c>
-      <c r="N58" s="78">
+      <c r="M58" s="78">
+        <v>1</v>
+      </c>
+      <c r="N58" s="77">
         <v>0</v>
       </c>
-      <c r="O58" s="78"/>
-      <c r="P58" s="78">
+      <c r="O58" s="77"/>
+      <c r="P58" s="77">
         <v>4</v>
       </c>
-      <c r="R58" s="79">
+      <c r="R58" s="78">
         <v>0.64</v>
       </c>
-      <c r="S58" s="80">
+      <c r="S58" s="79">
         <v>0.73</v>
       </c>
-      <c r="T58" s="80">
+      <c r="T58" s="79">
         <v>0.74</v>
       </c>
-      <c r="U58" s="79" t="s">
-        <v>291</v>
-      </c>
-      <c r="V58" s="80">
-        <v>1</v>
-      </c>
-      <c r="W58" s="80">
+      <c r="U58" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="V58" s="79">
+        <v>1</v>
+      </c>
+      <c r="W58" s="79">
         <v>0.8</v>
       </c>
-      <c r="X58" s="80">
+      <c r="X58" s="79">
         <v>0.1</v>
       </c>
-      <c r="Z58" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA58" s="82" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB58" s="82">
-        <v>1</v>
-      </c>
-      <c r="AD58" s="82">
+      <c r="Z58" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA58" s="81" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB58" s="81">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="81">
         <v>1000</v>
       </c>
-      <c r="AE58" s="82">
+      <c r="AE58" s="81">
         <v>1.5</v>
       </c>
-      <c r="AH58" s="76"/>
-    </row>
-    <row r="59" spans="1:36" s="77" customFormat="1">
-      <c r="A59" s="78">
+      <c r="AH58" s="75"/>
+    </row>
+    <row r="59" spans="1:36" s="76" customFormat="1">
+      <c r="A59" s="77">
         <v>58</v>
       </c>
-      <c r="B59" s="78">
+      <c r="B59" s="77">
         <v>58</v>
       </c>
-      <c r="C59" s="79" t="s">
+      <c r="C59" s="78" t="s">
+        <v>341</v>
+      </c>
+      <c r="D59" s="78" t="s">
+        <v>344</v>
+      </c>
+      <c r="E59" s="78" t="s">
+        <v>343</v>
+      </c>
+      <c r="F59" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="G59" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="H59" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="I59" s="78">
+        <v>2.64</v>
+      </c>
+      <c r="J59" s="78">
+        <v>2.38</v>
+      </c>
+      <c r="K59" s="77">
+        <v>1</v>
+      </c>
+      <c r="L59" s="77">
+        <v>30</v>
+      </c>
+      <c r="M59" s="78">
+        <v>1</v>
+      </c>
+      <c r="N59" s="77">
+        <v>0</v>
+      </c>
+      <c r="O59" s="77"/>
+      <c r="P59" s="77">
+        <v>4</v>
+      </c>
+      <c r="R59" s="78">
+        <v>0.64</v>
+      </c>
+      <c r="S59" s="79">
+        <v>0.73</v>
+      </c>
+      <c r="T59" s="79">
+        <v>0.74</v>
+      </c>
+      <c r="U59" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="V59" s="79">
+        <v>1</v>
+      </c>
+      <c r="W59" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="X59" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="Z59" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA59" s="81" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB59" s="81">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="81">
+        <v>1000</v>
+      </c>
+      <c r="AE59" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="AH59" s="75"/>
+    </row>
+    <row r="60" spans="1:36" s="76" customFormat="1">
+      <c r="A60" s="77">
+        <v>59</v>
+      </c>
+      <c r="B60" s="77">
+        <v>59</v>
+      </c>
+      <c r="C60" s="78" t="s">
+        <v>345</v>
+      </c>
+      <c r="D60" s="78" t="s">
+        <v>347</v>
+      </c>
+      <c r="E60" s="78" t="s">
+        <v>346</v>
+      </c>
+      <c r="F60" s="78" t="s">
+        <v>348</v>
+      </c>
+      <c r="G60" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="H60" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="I60" s="78">
+        <v>2.64</v>
+      </c>
+      <c r="J60" s="78">
+        <v>2.38</v>
+      </c>
+      <c r="K60" s="77">
+        <v>1</v>
+      </c>
+      <c r="L60" s="77">
+        <v>30</v>
+      </c>
+      <c r="M60" s="78">
+        <v>1</v>
+      </c>
+      <c r="N60" s="77">
+        <v>0</v>
+      </c>
+      <c r="O60" s="77"/>
+      <c r="P60" s="77">
+        <v>4</v>
+      </c>
+      <c r="R60" s="78">
+        <v>0.64</v>
+      </c>
+      <c r="S60" s="79">
+        <v>0.73</v>
+      </c>
+      <c r="T60" s="79">
+        <v>0.74</v>
+      </c>
+      <c r="U60" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="V60" s="79">
+        <v>1</v>
+      </c>
+      <c r="W60" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="X60" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="Z60" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA60" s="81" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB60" s="81">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="81">
+        <v>1000</v>
+      </c>
+      <c r="AE60" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="AH60" s="75"/>
+    </row>
+    <row r="61" spans="1:36" s="76" customFormat="1">
+      <c r="A61" s="77">
+        <v>60</v>
+      </c>
+      <c r="B61" s="77">
+        <v>60</v>
+      </c>
+      <c r="C61" s="78" t="s">
+        <v>350</v>
+      </c>
+      <c r="D61" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="E61" s="78" t="s">
+        <v>352</v>
+      </c>
+      <c r="F61" s="78" t="s">
+        <v>348</v>
+      </c>
+      <c r="G61" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="H61" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" s="78">
+        <v>2.64</v>
+      </c>
+      <c r="J61" s="78">
+        <v>2.38</v>
+      </c>
+      <c r="K61" s="77">
+        <v>1</v>
+      </c>
+      <c r="L61" s="77">
+        <v>30</v>
+      </c>
+      <c r="M61" s="78">
+        <v>1</v>
+      </c>
+      <c r="N61" s="77">
+        <v>0</v>
+      </c>
+      <c r="O61" s="77"/>
+      <c r="P61" s="77">
+        <v>4</v>
+      </c>
+      <c r="R61" s="78">
+        <v>0.64</v>
+      </c>
+      <c r="S61" s="79">
+        <v>0.73</v>
+      </c>
+      <c r="T61" s="79">
+        <v>0.74</v>
+      </c>
+      <c r="U61" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="V61" s="79">
+        <v>1</v>
+      </c>
+      <c r="W61" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="X61" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="Z61" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA61" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB61" s="81">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="81">
+        <v>1000</v>
+      </c>
+      <c r="AE61" s="81">
+        <v>1.5</v>
+      </c>
+      <c r="AH61" s="75"/>
+    </row>
+    <row r="62" spans="1:36" s="71" customFormat="1" ht="16.5">
+      <c r="A62" s="77">
+        <v>61</v>
+      </c>
+      <c r="B62" s="77">
+        <v>61</v>
+      </c>
+      <c r="C62" s="78" t="s">
         <v>353</v>
       </c>
-      <c r="D59" s="79" t="s">
+      <c r="D62" s="82" t="s">
         <v>356</v>
       </c>
-      <c r="E59" s="79" t="s">
+      <c r="E62" s="78" t="s">
+        <v>354</v>
+      </c>
+      <c r="F62" s="82" t="s">
+        <v>356</v>
+      </c>
+      <c r="G62" s="82" t="s">
+        <v>357</v>
+      </c>
+      <c r="H62" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="I62" s="78">
+        <v>2.64</v>
+      </c>
+      <c r="J62" s="78">
+        <v>2.38</v>
+      </c>
+      <c r="K62" s="77">
+        <v>1</v>
+      </c>
+      <c r="L62" s="77">
+        <v>30</v>
+      </c>
+      <c r="M62" s="78">
+        <v>1</v>
+      </c>
+      <c r="N62" s="77">
+        <v>0</v>
+      </c>
+      <c r="O62" s="77"/>
+      <c r="P62" s="77">
+        <v>4</v>
+      </c>
+      <c r="R62" s="78">
+        <v>0.64</v>
+      </c>
+      <c r="S62" s="79">
+        <v>0.73</v>
+      </c>
+      <c r="T62" s="79">
+        <v>0.74</v>
+      </c>
+      <c r="U62" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="V62" s="79">
+        <v>1</v>
+      </c>
+      <c r="W62" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="X62" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="Y62" s="71" t="s">
         <v>355</v>
       </c>
-      <c r="F59" s="79" t="s">
-        <v>354</v>
-      </c>
-      <c r="G59" s="79" t="s">
-        <v>354</v>
-      </c>
-      <c r="H59" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="I59" s="79">
-        <v>2.64</v>
-      </c>
-      <c r="J59" s="79">
-        <v>2.38</v>
-      </c>
-      <c r="K59" s="78">
-        <v>1</v>
-      </c>
-      <c r="L59" s="78">
-        <v>30</v>
-      </c>
-      <c r="M59" s="79">
-        <v>1</v>
-      </c>
-      <c r="N59" s="78">
-        <v>0</v>
-      </c>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78">
-        <v>4</v>
-      </c>
-      <c r="R59" s="79">
-        <v>0.64</v>
-      </c>
-      <c r="S59" s="80">
-        <v>0.73</v>
-      </c>
-      <c r="T59" s="80">
-        <v>0.74</v>
-      </c>
-      <c r="U59" s="79" t="s">
-        <v>291</v>
-      </c>
-      <c r="V59" s="80">
-        <v>1</v>
-      </c>
-      <c r="W59" s="80">
-        <v>0.8</v>
-      </c>
-      <c r="X59" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="Z59" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA59" s="82" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB59" s="82">
-        <v>1</v>
-      </c>
-      <c r="AD59" s="82">
+      <c r="Z62" s="83" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA62" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB62" s="77">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="77">
         <v>1000</v>
       </c>
-      <c r="AE59" s="82">
+      <c r="AE62" s="77">
         <v>1.5</v>
       </c>
-      <c r="AH59" s="76"/>
-    </row>
-    <row r="60" spans="1:36" s="77" customFormat="1">
-      <c r="A60" s="78">
-        <v>59</v>
-      </c>
-      <c r="B60" s="78">
-        <v>59</v>
-      </c>
-      <c r="C60" s="79" t="s">
-        <v>357</v>
-      </c>
-      <c r="D60" s="79" t="s">
-        <v>359</v>
-      </c>
-      <c r="E60" s="79" t="s">
-        <v>358</v>
-      </c>
-      <c r="F60" s="79" t="s">
-        <v>360</v>
-      </c>
-      <c r="G60" s="79" t="s">
-        <v>361</v>
-      </c>
-      <c r="H60" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="I60" s="79">
-        <v>2.64</v>
-      </c>
-      <c r="J60" s="79">
-        <v>2.38</v>
-      </c>
-      <c r="K60" s="78">
-        <v>1</v>
-      </c>
-      <c r="L60" s="78">
-        <v>30</v>
-      </c>
-      <c r="M60" s="79">
-        <v>1</v>
-      </c>
-      <c r="N60" s="78">
-        <v>0</v>
-      </c>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78">
-        <v>4</v>
-      </c>
-      <c r="R60" s="79">
-        <v>0.64</v>
-      </c>
-      <c r="S60" s="80">
-        <v>0.73</v>
-      </c>
-      <c r="T60" s="80">
-        <v>0.74</v>
-      </c>
-      <c r="U60" s="79" t="s">
-        <v>291</v>
-      </c>
-      <c r="V60" s="80">
-        <v>1</v>
-      </c>
-      <c r="W60" s="80">
-        <v>0.8</v>
-      </c>
-      <c r="X60" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="Z60" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA60" s="82" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB60" s="82">
-        <v>1</v>
-      </c>
-      <c r="AD60" s="82">
-        <v>1000</v>
-      </c>
-      <c r="AE60" s="82">
-        <v>1.5</v>
-      </c>
-      <c r="AH60" s="76"/>
-    </row>
-    <row r="61" spans="1:36" s="77" customFormat="1">
-      <c r="A61" s="78">
-        <v>60</v>
-      </c>
-      <c r="B61" s="78">
-        <v>60</v>
-      </c>
-      <c r="C61" s="79" t="s">
-        <v>362</v>
-      </c>
-      <c r="D61" s="79" t="s">
-        <v>363</v>
-      </c>
-      <c r="E61" s="79" t="s">
-        <v>364</v>
-      </c>
-      <c r="F61" s="79" t="s">
-        <v>360</v>
-      </c>
-      <c r="G61" s="79" t="s">
-        <v>363</v>
-      </c>
-      <c r="H61" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="I61" s="79">
-        <v>2.64</v>
-      </c>
-      <c r="J61" s="79">
-        <v>2.38</v>
-      </c>
-      <c r="K61" s="78">
-        <v>1</v>
-      </c>
-      <c r="L61" s="78">
-        <v>30</v>
-      </c>
-      <c r="M61" s="79">
-        <v>1</v>
-      </c>
-      <c r="N61" s="78">
-        <v>0</v>
-      </c>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78">
-        <v>4</v>
-      </c>
-      <c r="R61" s="79">
-        <v>0.64</v>
-      </c>
-      <c r="S61" s="80">
-        <v>0.73</v>
-      </c>
-      <c r="T61" s="80">
-        <v>0.74</v>
-      </c>
-      <c r="U61" s="79" t="s">
-        <v>291</v>
-      </c>
-      <c r="V61" s="80">
-        <v>1</v>
-      </c>
-      <c r="W61" s="80">
-        <v>0.8</v>
-      </c>
-      <c r="X61" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="Z61" s="81" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA61" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB61" s="82">
-        <v>1</v>
-      </c>
-      <c r="AD61" s="82">
-        <v>1000</v>
-      </c>
-      <c r="AE61" s="82">
-        <v>1.5</v>
-      </c>
-      <c r="AH61" s="76"/>
-    </row>
-    <row r="62" spans="1:36" s="71" customFormat="1" ht="16.5">
-      <c r="A62" s="78">
-        <v>61</v>
-      </c>
-      <c r="B62" s="78">
-        <v>61</v>
-      </c>
-      <c r="C62" s="79" t="s">
-        <v>365</v>
-      </c>
-      <c r="D62" s="83" t="s">
-        <v>368</v>
-      </c>
-      <c r="E62" s="79" t="s">
-        <v>366</v>
-      </c>
-      <c r="F62" s="83" t="s">
-        <v>368</v>
-      </c>
-      <c r="G62" s="83" t="s">
-        <v>369</v>
-      </c>
-      <c r="H62" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="I62" s="79">
-        <v>2.64</v>
-      </c>
-      <c r="J62" s="79">
-        <v>2.38</v>
-      </c>
-      <c r="K62" s="78">
-        <v>1</v>
-      </c>
-      <c r="L62" s="78">
-        <v>30</v>
-      </c>
-      <c r="M62" s="79">
-        <v>1</v>
-      </c>
-      <c r="N62" s="78">
-        <v>0</v>
-      </c>
-      <c r="O62" s="78"/>
-      <c r="P62" s="78">
-        <v>4</v>
-      </c>
-      <c r="R62" s="79">
-        <v>0.64</v>
-      </c>
-      <c r="S62" s="80">
-        <v>0.73</v>
-      </c>
-      <c r="T62" s="80">
-        <v>0.74</v>
-      </c>
-      <c r="U62" s="79" t="s">
-        <v>291</v>
-      </c>
-      <c r="V62" s="80">
-        <v>1</v>
-      </c>
-      <c r="W62" s="80">
-        <v>0.8</v>
-      </c>
-      <c r="X62" s="80">
-        <v>0.1</v>
-      </c>
-      <c r="Y62" s="71" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z62" s="84" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA62" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB62" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD62" s="78">
-        <v>1000</v>
-      </c>
-      <c r="AE62" s="78">
-        <v>1.5</v>
-      </c>
-      <c r="AH62" s="76"/>
+      <c r="AH62" s="75"/>
     </row>
     <row r="63" spans="1:36">
       <c r="E63" s="12"/>
@@ -10121,48 +10081,48 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="3:9">
       <c r="C2" s="55"/>
       <c r="D2" s="5" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F2" s="8" t="str">
         <f>CONCATENATE($H$2,I2)</f>
         <v>fish3dnode/fish3d/fish/boat 1/body</v>
       </c>
-      <c r="H2" s="103" t="s">
-        <v>595</v>
+      <c r="H2" s="102" t="s">
+        <v>582</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="3:9">
       <c r="C3" s="59"/>
       <c r="D3" s="5" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F3" s="8" t="str">
         <f>CONCATENATE($H$2,I3)</f>
         <v>fish3dnode/fish3d/fish/CSY/body002</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="3:9">
       <c r="C4" s="55"/>
       <c r="D4" s="5" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>28</v>
@@ -10172,45 +10132,45 @@
         <v>fish3dnode/fish3d/fish/CT/body004</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="55"/>
       <c r="D5" s="5" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Dabaisha/Bone001/Dabaisha_Body</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="55"/>
       <c r="D6" s="5" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="55"/>
       <c r="D7" s="5" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>31</v>
@@ -10220,173 +10180,173 @@
         <v>fish3dnode/fish3d/fish/Dengluyu/Denglongyu_Body</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="55"/>
       <c r="D8" s="5" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/DHZ/body</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="59"/>
       <c r="D9" s="5" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/GameCY/FourFishs/1/dizuo/Camera/diwangxie/Pangxie_body</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="55"/>
       <c r="D10" s="5" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Douyunvwang/liyuwang_Body</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="3:9">
       <c r="C11" s="55"/>
       <c r="D11" s="5" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Eel/Box005</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="3:9">
       <c r="C12" s="55"/>
       <c r="D12" s="5" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Egg/Egg_Body</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" s="55"/>
       <c r="D13" s="5" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Eyuwang/Eyuwang_Body</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="55"/>
       <c r="D14" s="5" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Gangkuiyu/Gangkuiyu 1</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" s="55"/>
       <c r="D15" s="5" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/GL/body</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="3:9">
       <c r="C16" s="55"/>
       <c r="D16" s="5" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/GL/body</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" s="55"/>
       <c r="D17" s="5" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Haigui/Haigui_Body</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="55"/>
       <c r="D18" s="5" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>44</v>
@@ -10396,13 +10356,13 @@
         <v>fish3dnode/fish3d/fish/Haima/Haima_Body</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="55"/>
       <c r="D19" s="5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>48</v>
@@ -10412,13 +10372,13 @@
         <v>fish3dnode/fish3d/fish/Haitun/Haitun_Body</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="3:9">
       <c r="C20" s="59"/>
       <c r="D20" s="5" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E20" s="22" t="s">
         <v>41</v>
@@ -10428,29 +10388,29 @@
         <v>fish3dnode/fish3d/fish/Haitun/Haitun_Body</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="3:9">
       <c r="C21" s="55"/>
       <c r="D21" s="5" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="F21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Haixiang/Haixiang_Body</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="3:9">
       <c r="C22" s="55"/>
       <c r="D22" s="5" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>59</v>
@@ -10460,125 +10420,125 @@
         <v>fish3dnode/fish3d/fish/Hole/body001</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="3:9">
       <c r="C23" s="55"/>
       <c r="D23" s="5" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="F23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="3:9">
       <c r="C24" s="55"/>
       <c r="D24" s="5" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Huabannian/Huabannian_Body</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="3:9">
       <c r="C25" s="55"/>
       <c r="D25" s="5" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Huandengyu/Huandengyu_Body</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="55"/>
       <c r="D26" s="5" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="3:9">
       <c r="C27" s="55"/>
       <c r="D27" s="5" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Jianyu/Jianyu_Body</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="55"/>
       <c r="D28" s="5" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="F28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Jijuxie 1/Bone00/Bone04/Bone27/Bone28/Bone048/Bone30/Jijuxie_Body</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="3:9">
       <c r="C29" s="55"/>
       <c r="D29" s="5" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Juchisha/Juchisha_Body</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="3:9">
       <c r="C30" s="55"/>
       <c r="D30" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>56</v>
@@ -10588,13 +10548,13 @@
         <v>fish3dnode/fish3d/fish/Lanjing/Jingyu_Body</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="3:9">
       <c r="C31" s="55"/>
       <c r="D31" s="5" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>57</v>
@@ -10604,397 +10564,397 @@
         <v>fish3dnode/fish3d/fish/Lanlongxia/longxia_Body</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="3:9">
       <c r="C32" s="55"/>
       <c r="D32" s="5" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Leishenxie/Liehsenxie_Body</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="3:9">
       <c r="C33" s="55"/>
       <c r="D33" s="5" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Liujiaolongyu/Liujiaolongyu 1</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="3:9">
       <c r="C34" s="55"/>
       <c r="D34" s="5" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Liujiaolongyu/Liujiaolongyu 1</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="3:9">
       <c r="C35" s="55"/>
       <c r="D35" s="5" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/longxia_pre/Longxia_Body</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="3:9">
       <c r="C36" s="55"/>
       <c r="D36" s="5" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/MidAutumn/body</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="3:9">
       <c r="C37" s="55"/>
       <c r="D37" s="5" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Paoshenxie/pangxie</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="55"/>
       <c r="D38" s="5" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F38" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Renzhegui/renzhegui 1</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="3:9">
       <c r="C39" s="55"/>
       <c r="D39" s="5" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="F39" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shanbei/ShanBei_body</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="3:9">
       <c r="C40" s="55"/>
       <c r="D40" s="5" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="F40" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shenxianyu/Shenxianyu_Body</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="3:9">
       <c r="C41" s="55"/>
       <c r="D41" s="5" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F41" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shitousha/Shitousha_Body</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="3:9">
       <c r="C42" s="55"/>
       <c r="D42" s="5" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F42" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shiziyu/Shiziyu_Body</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="3:9">
       <c r="C43" s="69"/>
       <c r="D43" s="5" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F43" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shiziyu/Shiziyu_Body</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="3:9">
       <c r="C44" s="55"/>
       <c r="D44" s="5" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F44" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="3:9">
       <c r="C45" s="69"/>
       <c r="D45" s="5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F45" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="3:9">
       <c r="C46" s="69"/>
       <c r="D46" s="5" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F46" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Xiaomoguiyu/Moguiyu_Body</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="3:9">
       <c r="C47" s="70"/>
       <c r="D47" s="5" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F47" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/XW/Xuanwu_Body</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48" spans="3:9">
       <c r="C48" s="55"/>
       <c r="D48" s="5" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F48" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="3:9">
       <c r="C49" s="55"/>
       <c r="D49" s="5" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F49" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="3:9">
       <c r="C50" s="55"/>
       <c r="D50" s="5" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F50" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Zhadanfeiyu/Zhadanfeiyu_Body</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="3:9">
       <c r="C51" s="70"/>
       <c r="D51" s="5" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F51" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="3:9">
       <c r="C52" s="55"/>
       <c r="D52" s="5" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="F52" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="70"/>
       <c r="D53" s="5" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F53" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Shuangjisha/Shuangjisha_Body</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="59"/>
       <c r="D54" s="5" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="F54" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Xiaomoguiyu/Moguiyu_Body</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55" spans="3:9">
       <c r="C55" s="59"/>
       <c r="D55" s="5" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="F55" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/XW/Xuanwu_Body</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="59"/>
       <c r="D56" s="5" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>44</v>
@@ -11004,13 +10964,13 @@
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="59"/>
       <c r="D57" s="5" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E57" s="22" t="s">
         <v>48</v>
@@ -11020,77 +10980,77 @@
         <v>fish3dnode/fish3d/fish/Yingwuluo/yingwuluo</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="3:9">
       <c r="C58" s="70"/>
       <c r="D58" s="5" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F58" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Zhadanfeiyu/Zhadanfeiyu_Body</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="70"/>
       <c r="D59" s="5" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="E59" s="50" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F59" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="70"/>
       <c r="D60" s="5" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="E60" s="50" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="F60" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/ZYW/zhangyuwang_Body</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="3:9">
       <c r="C61" s="70"/>
       <c r="D61" s="5" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="F61" s="8" t="str">
         <f t="shared" si="0"/>
         <v>fish3dnode/fish3d/fish/Baozhahetun/Baozhahetun_Body</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="62" spans="3:9">
       <c r="C62" s="70"/>
       <c r="D62" s="5" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="E62" s="50"/>
       <c r="F62" s="8" t="str">
@@ -11098,13 +11058,13 @@
         <v>fish3dnode/fish3d/fish/Dabaisha/Dabaisha_Body</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="63" spans="3:9">
       <c r="C63" s="70"/>
       <c r="D63" s="5" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="E63" s="50"/>
       <c r="F63" s="8" t="str">
@@ -11112,200 +11072,200 @@
         <v>fish3dnode/fish3d/fish/Jinchanwang/Jinchanwang_Body</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64" spans="3:9">
       <c r="C64" s="70"/>
       <c r="D64" s="5" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="8" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="4:7">
       <c r="D65" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="8" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="4:7">
       <c r="D66" s="5" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="8" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="4:7">
       <c r="D67" s="5" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="8" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="4:7">
       <c r="D68" s="5" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="4:7">
       <c r="D69" s="5" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="4:7">
       <c r="D70" s="5" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="4:7">
       <c r="D71" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="4:7">
       <c r="D72" s="5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="4:7">
       <c r="D73" s="5" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="4:7">
       <c r="D74" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="4:7">
       <c r="D75" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="4:7">
       <c r="D76" s="5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77" spans="4:7">
       <c r="D77" s="5" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="78" spans="4:7">
       <c r="D78" s="5" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="4:7">
       <c r="D79" s="5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="4:7">
       <c r="D80" s="56" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F80" s="57" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="G80" s="58"/>
     </row>
     <row r="81" spans="4:7">
       <c r="D81" s="22" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G81" s="27"/>
     </row>
     <row r="82" spans="4:7">
       <c r="D82" s="22" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F82" s="27"/>
       <c r="G82" s="27"/>
     </row>
     <row r="83" spans="4:7">
       <c r="D83" s="5" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="84" spans="4:7">
@@ -11317,66 +11277,66 @@
     </row>
     <row r="85" spans="4:7">
       <c r="D85" s="5" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="4:7">
       <c r="D86" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87" spans="4:7">
       <c r="D87" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G87" s="9"/>
     </row>
     <row r="88" spans="4:7">
       <c r="D88" s="22" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
     </row>
     <row r="89" spans="4:7">
       <c r="D89" s="22" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F89" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="G89" s="26" t="s">
         <v>529</v>
-      </c>
-      <c r="G89" s="26" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="90" spans="4:7">
       <c r="D90" s="22" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F90" s="27" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G90" s="27"/>
     </row>
     <row r="91" spans="4:7">
       <c r="D91" s="22" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="G91" s="27"/>
     </row>
@@ -11389,404 +11349,404 @@
     </row>
     <row r="93" spans="4:7">
       <c r="D93" s="22" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
     </row>
     <row r="94" spans="4:7">
       <c r="D94" s="22" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
     </row>
     <row r="95" spans="4:7">
       <c r="D95" s="22" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
     </row>
     <row r="96" spans="4:7">
       <c r="D96" s="22" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
     </row>
     <row r="97" spans="4:7">
       <c r="D97" s="22" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="G97" s="27"/>
     </row>
     <row r="98" spans="4:7">
       <c r="D98" s="22" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G98" s="27"/>
     </row>
     <row r="99" spans="4:7">
       <c r="D99" s="22" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="100" spans="4:7">
       <c r="D100" s="44" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F100" s="47" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G100" s="47"/>
     </row>
     <row r="101" spans="4:7">
       <c r="D101" s="33" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F101" s="36"/>
       <c r="G101" s="36"/>
     </row>
     <row r="102" spans="4:7">
       <c r="D102" s="33" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F102" s="36" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="G102" s="36" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="103" spans="4:7">
       <c r="D103" s="33" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
     </row>
     <row r="104" spans="4:7">
       <c r="D104" s="33" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F104" s="36" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="G104" s="36"/>
     </row>
     <row r="105" spans="4:7">
       <c r="D105" s="39" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="F105" s="41" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G105" s="41"/>
     </row>
     <row r="106" spans="4:7">
       <c r="D106" s="33" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="F106" s="36" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G106" s="36"/>
     </row>
     <row r="107" spans="4:7">
       <c r="D107" s="39" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F107" s="41" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="G107" s="41"/>
     </row>
     <row r="108" spans="4:7">
       <c r="D108" s="39" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F108" s="41" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G108" s="41"/>
     </row>
     <row r="109" spans="4:7">
       <c r="D109" s="12" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="110" spans="4:7">
       <c r="D110" s="12" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="G110" s="14"/>
     </row>
     <row r="111" spans="4:7">
       <c r="D111" s="12" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G111" s="14"/>
     </row>
     <row r="112" spans="4:7">
       <c r="D112" s="12" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="G112" s="14"/>
     </row>
     <row r="113" spans="4:7">
       <c r="D113" s="18" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
     </row>
     <row r="114" spans="4:7">
       <c r="D114" s="12" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
     </row>
     <row r="115" spans="4:7">
       <c r="D115" s="12" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="116" spans="4:7">
       <c r="D116" s="5" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="117" spans="4:7">
       <c r="D117" s="5" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G117" s="9"/>
     </row>
     <row r="118" spans="4:7">
       <c r="D118" s="56" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F118" s="57" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G118" s="58"/>
     </row>
     <row r="119" spans="4:7">
       <c r="D119" s="22" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="G119" s="27"/>
     </row>
     <row r="120" spans="4:7">
       <c r="D120" s="12" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="121" spans="4:7">
       <c r="D121" s="50" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F121" s="51"/>
       <c r="G121" s="51"/>
     </row>
     <row r="122" spans="4:7">
       <c r="D122" s="50" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="F122" s="51"/>
       <c r="G122" s="51"/>
     </row>
     <row r="123" spans="4:7">
       <c r="D123" s="52" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="F123" s="53"/>
       <c r="G123" s="53"/>
     </row>
     <row r="124" spans="4:7">
       <c r="D124" s="50" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F124" s="54"/>
       <c r="G124" s="54"/>
     </row>
     <row r="143" spans="5:5">
-      <c r="E143" s="86" t="s">
-        <v>609</v>
+      <c r="E143" s="85" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="144" spans="5:5">
-      <c r="E144" s="86" t="s">
+      <c r="E144" s="85" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="85" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" s="85" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5">
+      <c r="E147" s="96" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5">
+      <c r="E148" s="96" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5">
+      <c r="E149" s="96" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5">
+      <c r="E150" s="85" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" s="85" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" s="85" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5">
+      <c r="E153" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" s="85" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5">
+      <c r="E155" s="85" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5">
+      <c r="E156" s="85" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5">
+      <c r="E157" s="85" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5">
+      <c r="E158" s="85" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5">
+      <c r="E159" s="85" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5">
+      <c r="E160" s="96" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5">
+      <c r="E161" s="85" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5">
+      <c r="E162" s="85" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="145" spans="5:5">
-      <c r="E145" s="86" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="146" spans="5:5">
-      <c r="E146" s="86" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="147" spans="5:5">
-      <c r="E147" s="97" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="148" spans="5:5">
-      <c r="E148" s="97" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="149" spans="5:5">
-      <c r="E149" s="97" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="150" spans="5:5">
-      <c r="E150" s="86" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="151" spans="5:5">
-      <c r="E151" s="86" t="s">
+    <row r="163" spans="2:5">
+      <c r="E163" s="85" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="96" t="s">
+        <v>553</v>
+      </c>
+      <c r="E164" s="85" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="152" spans="5:5">
-      <c r="E152" s="86" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="153" spans="5:5">
-      <c r="E153" s="86" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="154" spans="5:5">
-      <c r="E154" s="86" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="155" spans="5:5">
-      <c r="E155" s="86" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="156" spans="5:5">
-      <c r="E156" s="86" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="157" spans="5:5">
-      <c r="E157" s="86" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="158" spans="5:5">
-      <c r="E158" s="86" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="159" spans="5:5">
-      <c r="E159" s="86" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="160" spans="5:5">
-      <c r="E160" s="97" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="161" spans="2:5">
-      <c r="E161" s="86" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5">
-      <c r="E162" s="86" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5">
-      <c r="E163" s="86" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5">
-      <c r="B164" s="97" t="s">
-        <v>565</v>
-      </c>
-      <c r="E164" s="86" t="s">
-        <v>561</v>
-      </c>
-    </row>
     <row r="165" spans="2:5">
-      <c r="E165" s="86" t="s">
-        <v>476</v>
+      <c r="E165" s="85" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="166" spans="2:5">
-      <c r="E166" s="97" t="s">
-        <v>566</v>
+      <c r="E166" s="96" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="167" spans="2:5">
-      <c r="E167" s="86" t="s">
-        <v>552</v>
+      <c r="E167" s="85" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="168" spans="2:5">
-      <c r="E168" s="86" t="s">
-        <v>551</v>
+      <c r="E168" s="85" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="169" spans="2:5">
-      <c r="E169" s="97" t="s">
-        <v>580</v>
+      <c r="E169" s="96" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>

--- a/config_ios/fish3d_config.xlsx
+++ b/config_ios/fish3d_config.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="610">
   <si>
     <t>line|行号</t>
   </si>
@@ -3205,10 +3205,6 @@
   </si>
   <si>
     <t>FishNew034</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -4044,9 +4040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4866,7 +4862,7 @@
         <v>111</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G9" s="85" t="s">
         <v>65</v>
@@ -4967,7 +4963,7 @@
         <v>105</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G10" s="85" t="s">
         <v>65</v>
@@ -5068,7 +5064,7 @@
         <v>561</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G11" s="85" t="s">
         <v>65</v>
@@ -5169,7 +5165,7 @@
         <v>112</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G12" s="85" t="s">
         <v>65</v>
@@ -5270,7 +5266,7 @@
         <v>113</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G13" s="85" t="s">
         <v>65</v>
@@ -5371,7 +5367,7 @@
         <v>114</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G14" s="85" t="s">
         <v>65</v>
@@ -5675,7 +5671,7 @@
         <v>262</v>
       </c>
       <c r="G17" s="85" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H17" s="85" t="s">
         <v>81</v>
@@ -5772,7 +5768,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G18" s="85" t="s">
         <v>251</v>
@@ -5872,10 +5868,10 @@
         <v>564</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G19" s="85" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H19" s="85" t="s">
         <v>83</v>
@@ -5972,10 +5968,10 @@
         <v>597</v>
       </c>
       <c r="F20" s="85" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G20" s="85" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H20" s="85" t="s">
         <v>84</v>
@@ -6174,7 +6170,7 @@
         <v>269</v>
       </c>
       <c r="G22" s="85" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H22" s="93" t="s">
         <v>86</v>
@@ -6554,7 +6550,7 @@
         <v>119</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>254</v>
@@ -6647,7 +6643,7 @@
         <v>120</v>
       </c>
       <c r="F27" s="85" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G27" s="85" t="s">
         <v>268</v>
@@ -7877,7 +7873,7 @@
         <v>221</v>
       </c>
       <c r="E40" s="96" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F40" s="96" t="s">
         <v>589</v>
@@ -8063,7 +8059,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="96" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D42" s="96" t="s">
         <v>247</v>
@@ -8773,9 +8769,7 @@
       <c r="N49" s="95">
         <v>600</v>
       </c>
-      <c r="O49" s="87" t="s">
-        <v>599</v>
-      </c>
+      <c r="O49" s="87"/>
       <c r="P49" s="95">
         <v>3</v>
       </c>
@@ -8947,7 +8941,7 @@
         <v>165</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>65</v>
@@ -9036,7 +9030,7 @@
         <v>572</v>
       </c>
       <c r="E52" s="96" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F52" s="96" t="s">
         <v>64</v>
@@ -9536,7 +9530,7 @@
         <v>48</v>
       </c>
       <c r="F57" s="72" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G57" s="72" t="s">
         <v>252</v>
